--- a/Tests/Both/baseline_both_sma_5_25_30_50_DDD.xlsx
+++ b/Tests/Both/baseline_both_sma_5_25_30_50_DDD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Windows\Documents\bt_plat\Tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Windows\Documents\bt_plat\Tests\Both\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F41896-521C-4F79-9B75-FEAC8C147DC5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50590908-6A64-489B-9C31-25834875E0B5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="21">
   <si>
     <t>Symbol</t>
   </si>
@@ -94,10 +94,7 @@
     <t>0/0</t>
   </si>
   <si>
-    <t>Open Long</t>
-  </si>
-  <si>
-    <t>Open</t>
+    <t>Short</t>
   </si>
 </sst>
 </file>
@@ -417,15 +414,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="A1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -477,13 +474,16 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1">
         <v>40717</v>
@@ -492,19 +492,19 @@
         <v>12.83</v>
       </c>
       <c r="E2" s="1">
-        <v>40756</v>
+        <v>40717</v>
       </c>
       <c r="F2">
-        <v>13.95</v>
+        <v>12.83</v>
       </c>
       <c r="G2" s="2">
-        <v>8.7300000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>86.24</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2">
-        <v>8.7300000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>77</v>
@@ -513,30 +513,34 @@
         <v>987.91</v>
       </c>
       <c r="L2">
-        <v>86.24</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>3.19</v>
+        <v>0</v>
       </c>
       <c r="O2" s="2">
-        <v>-7.17E-2</v>
+        <v>-3.0999999999999999E-3</v>
       </c>
       <c r="P2" s="2">
-        <v>0.4178</v>
+        <v>7.17E-2</v>
       </c>
       <c r="Q2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2">
+        <f>ROUND(F2,2)</f>
+        <v>12.83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1">
         <v>40787</v>
@@ -545,51 +549,55 @@
         <v>11.5</v>
       </c>
       <c r="E3" s="1">
-        <v>40792</v>
+        <v>40787</v>
       </c>
       <c r="F3">
-        <v>10.64</v>
+        <v>11.5</v>
       </c>
       <c r="G3" s="2">
-        <v>-7.4800000000000005E-2</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>-74.819999999999993</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>-7.4800000000000005E-2</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K3">
-        <v>1000.5</v>
+        <v>989</v>
       </c>
       <c r="L3">
-        <v>11.42</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>-24.94</v>
+        <v>0</v>
       </c>
       <c r="O3" s="2">
-        <v>-8.6099999999999996E-2</v>
+        <v>-7.1300000000000002E-2</v>
       </c>
       <c r="P3" s="2">
-        <v>7.1300000000000002E-2</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3">
+        <f t="shared" ref="R3:R64" si="0">ROUND(F3,2)</f>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1">
         <v>40827</v>
@@ -598,19 +606,19 @@
         <v>11.39</v>
       </c>
       <c r="E4" s="1">
-        <v>40849</v>
+        <v>40827</v>
       </c>
       <c r="F4">
-        <v>10.75</v>
+        <v>11.39</v>
       </c>
       <c r="G4" s="2">
-        <v>-5.62E-2</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>-55.68</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
-        <v>-5.62E-2</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>87</v>
@@ -619,25 +627,29 @@
         <v>990.93</v>
       </c>
       <c r="L4">
-        <v>-44.26</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>-3.28</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2">
-        <v>-0.11940000000000001</v>
+        <v>-2.1100000000000001E-2</v>
       </c>
       <c r="P4" s="2">
-        <v>0.17030000000000001</v>
+        <v>4.5699999999999998E-2</v>
       </c>
       <c r="Q4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>11.39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -645,105 +657,113 @@
         <v>18</v>
       </c>
       <c r="C5" s="1">
-        <v>40914</v>
+        <v>40856</v>
       </c>
       <c r="D5">
-        <v>10.67</v>
+        <v>10.37</v>
       </c>
       <c r="E5" s="1">
-        <v>41044</v>
+        <v>40884</v>
       </c>
       <c r="F5">
-        <v>18.28</v>
+        <v>10.35</v>
       </c>
       <c r="G5" s="2">
-        <v>0.71319999999999995</v>
+        <v>-1.9E-3</v>
       </c>
       <c r="H5">
-        <v>707.73</v>
+        <v>-1.92</v>
       </c>
       <c r="I5" s="2">
-        <v>0.71319999999999995</v>
+        <v>-1.9E-3</v>
       </c>
       <c r="J5">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K5">
-        <v>992.31</v>
+        <v>995.52</v>
       </c>
       <c r="L5">
-        <v>663.47</v>
+        <v>-1.92</v>
       </c>
       <c r="M5">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="N5">
-        <v>7.86</v>
+        <v>-0.1</v>
       </c>
       <c r="O5" s="2">
-        <v>-1.4999999999999999E-2</v>
+        <v>-8.6800000000000002E-2</v>
       </c>
       <c r="P5" s="2">
-        <v>0.97189999999999999</v>
+        <v>0.1244</v>
       </c>
       <c r="Q5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>10.35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1">
-        <v>41054</v>
+        <v>40914</v>
       </c>
       <c r="D6">
-        <v>20.420000000000002</v>
+        <v>10.67</v>
       </c>
       <c r="E6" s="1">
-        <v>41163</v>
+        <v>40914</v>
       </c>
       <c r="F6">
-        <v>26.11</v>
+        <v>10.67</v>
       </c>
       <c r="G6" s="2">
-        <v>0.27860000000000001</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>295.88</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>0.27860000000000001</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="K6">
-        <v>1061.8399999999999</v>
+        <v>992.31</v>
       </c>
       <c r="L6">
-        <v>959.35</v>
+        <v>-1.92</v>
       </c>
       <c r="M6">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
-        <v>-0.1024</v>
+        <v>-3.09E-2</v>
       </c>
       <c r="P6" s="2">
-        <v>0.46279999999999999</v>
+        <v>2.8E-3</v>
       </c>
       <c r="Q6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>10.67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -751,158 +771,170 @@
         <v>18</v>
       </c>
       <c r="C7" s="1">
-        <v>41198</v>
+        <v>40931</v>
       </c>
       <c r="D7">
-        <v>26.61</v>
+        <v>12.49</v>
       </c>
       <c r="E7" s="1">
-        <v>41229</v>
+        <v>41054</v>
       </c>
       <c r="F7">
-        <v>25.36</v>
+        <v>20.420000000000002</v>
       </c>
       <c r="G7" s="2">
-        <v>-4.7E-2</v>
+        <v>0.63490000000000002</v>
       </c>
       <c r="H7">
-        <v>-51.25</v>
+        <v>634.4</v>
       </c>
       <c r="I7" s="2">
-        <v>-4.7E-2</v>
+        <v>0.63490000000000002</v>
       </c>
       <c r="J7">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="K7">
-        <v>1091.01</v>
+        <v>999.2</v>
       </c>
       <c r="L7">
-        <v>908.1</v>
+        <v>632.48</v>
       </c>
       <c r="M7">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="N7">
-        <v>-2.33</v>
+        <v>7.21</v>
       </c>
       <c r="O7" s="2">
-        <v>-0.13420000000000001</v>
+        <v>-1.2800000000000001E-2</v>
       </c>
       <c r="P7" s="2">
-        <v>0.17549999999999999</v>
+        <v>0.6845</v>
       </c>
       <c r="Q7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>20.420000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1">
-        <v>41239</v>
+        <v>41054</v>
       </c>
       <c r="D8">
-        <v>31.03</v>
+        <v>20.420000000000002</v>
       </c>
       <c r="E8" s="1">
-        <v>41306</v>
+        <v>41054</v>
       </c>
       <c r="F8">
-        <v>39.03</v>
+        <v>20.420000000000002</v>
       </c>
       <c r="G8" s="2">
-        <v>0.25779999999999997</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="I8" s="2">
-        <v>0.25779999999999997</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="K8">
-        <v>1086.05</v>
+        <v>1061.8399999999999</v>
       </c>
       <c r="L8">
-        <v>1188.0999999999999</v>
+        <v>632.48</v>
       </c>
       <c r="M8">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>5.96</v>
+        <v>0</v>
       </c>
       <c r="O8" s="2">
-        <v>-0.1041</v>
+        <v>-1.2200000000000001E-2</v>
       </c>
       <c r="P8" s="2">
-        <v>0.54659999999999997</v>
+        <v>1.52E-2</v>
       </c>
       <c r="Q8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>20.420000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1">
-        <v>41312</v>
+        <v>41198</v>
       </c>
       <c r="D9">
-        <v>44.03</v>
+        <v>26.61</v>
       </c>
       <c r="E9" s="1">
-        <v>41324</v>
+        <v>41198</v>
       </c>
       <c r="F9">
-        <v>40.130000000000003</v>
+        <v>26.61</v>
       </c>
       <c r="G9" s="2">
-        <v>-8.8599999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>-97.5</v>
+        <v>0</v>
       </c>
       <c r="I9" s="2">
-        <v>-8.8599999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="K9">
-        <v>1100.75</v>
+        <v>1037.79</v>
       </c>
       <c r="L9">
-        <v>1090.5999999999999</v>
+        <v>632.48</v>
       </c>
       <c r="M9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>-12.19</v>
+        <v>0</v>
       </c>
       <c r="O9" s="2">
-        <v>-0.1147</v>
+        <v>-1.5E-3</v>
       </c>
       <c r="P9" s="2">
-        <v>3.6299999999999999E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="Q9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>26.61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -910,211 +942,227 @@
         <v>18</v>
       </c>
       <c r="C10" s="1">
-        <v>41374</v>
+        <v>41225</v>
       </c>
       <c r="D10">
-        <v>34.44</v>
+        <v>28.11</v>
       </c>
       <c r="E10" s="1">
-        <v>41432</v>
+        <v>41239</v>
       </c>
       <c r="F10">
-        <v>45.23</v>
+        <v>31.03</v>
       </c>
       <c r="G10" s="2">
-        <v>0.31330000000000002</v>
+        <v>0.10390000000000001</v>
       </c>
       <c r="H10">
-        <v>345.28</v>
+        <v>108.04</v>
       </c>
       <c r="I10" s="2">
-        <v>0.31330000000000002</v>
+        <v>0.10390000000000001</v>
       </c>
       <c r="J10">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K10">
-        <v>1102.08</v>
+        <v>1040.07</v>
       </c>
       <c r="L10">
-        <v>1435.88</v>
+        <v>740.52</v>
       </c>
       <c r="M10">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="N10">
-        <v>8.2200000000000006</v>
+        <v>10.8</v>
       </c>
       <c r="O10" s="2">
-        <v>-9.6699999999999994E-2</v>
+        <v>-0.1338</v>
       </c>
       <c r="P10" s="2">
-        <v>0.5081</v>
+        <v>0.10390000000000001</v>
       </c>
       <c r="Q10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>31.03</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1">
-        <v>41443</v>
+        <v>41239</v>
       </c>
       <c r="D11">
-        <v>47.78</v>
+        <v>31.03</v>
       </c>
       <c r="E11" s="1">
-        <v>41446</v>
+        <v>41239</v>
       </c>
       <c r="F11">
-        <v>43.5</v>
+        <v>31.03</v>
       </c>
       <c r="G11" s="2">
-        <v>-8.9599999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>-98.44</v>
+        <v>0</v>
       </c>
       <c r="I11" s="2">
-        <v>-8.9599999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="K11">
-        <v>1098.94</v>
+        <v>1055.02</v>
       </c>
       <c r="L11">
-        <v>1337.44</v>
+        <v>740.52</v>
       </c>
       <c r="M11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N11">
-        <v>-24.61</v>
+        <v>0</v>
       </c>
       <c r="O11" s="2">
-        <v>-8.9599999999999999E-2</v>
+        <v>-5.1999999999999998E-3</v>
       </c>
       <c r="P11" s="2">
-        <v>2.2800000000000001E-2</v>
+        <v>0.1041</v>
       </c>
       <c r="Q11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>31.03</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1">
-        <v>41463</v>
+        <v>41312</v>
       </c>
       <c r="D12">
-        <v>46.31</v>
+        <v>44.03</v>
       </c>
       <c r="E12" s="1">
-        <v>41492</v>
+        <v>41312</v>
       </c>
       <c r="F12">
-        <v>46.3</v>
+        <v>44.03</v>
       </c>
       <c r="G12" s="2">
-        <v>-2.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>-0.24</v>
+        <v>0</v>
       </c>
       <c r="I12" s="2">
-        <v>-2.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>24</v>
       </c>
       <c r="K12">
-        <v>1111.44</v>
+        <v>1056.72</v>
       </c>
       <c r="L12">
-        <v>1337.2</v>
+        <v>740.52</v>
       </c>
       <c r="M12">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="O12" s="2">
-        <v>-2.4E-2</v>
+        <v>-3.6299999999999999E-2</v>
       </c>
       <c r="P12" s="2">
-        <v>0.111</v>
+        <v>3.04E-2</v>
       </c>
       <c r="Q12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>44.03</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1">
-        <v>41499</v>
+        <v>41374</v>
       </c>
       <c r="D13">
-        <v>49.21</v>
+        <v>34.44</v>
       </c>
       <c r="E13" s="1">
-        <v>41505</v>
+        <v>41374</v>
       </c>
       <c r="F13">
-        <v>46.77</v>
+        <v>34.44</v>
       </c>
       <c r="G13" s="2">
-        <v>-4.9599999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>-56.12</v>
+        <v>0</v>
       </c>
       <c r="I13" s="2">
-        <v>-4.9599999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="K13">
-        <v>1131.83</v>
+        <v>1067.6400000000001</v>
       </c>
       <c r="L13">
-        <v>1281.08</v>
+        <v>740.52</v>
       </c>
       <c r="M13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>-11.22</v>
+        <v>0</v>
       </c>
       <c r="O13" s="2">
-        <v>-6.7100000000000007E-2</v>
+        <v>-2.12E-2</v>
       </c>
       <c r="P13" s="2">
-        <v>3.4299999999999997E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="Q13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R13">
+        <f t="shared" si="0"/>
+        <v>34.44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1122,158 +1170,170 @@
         <v>18</v>
       </c>
       <c r="C14" s="1">
-        <v>41509</v>
+        <v>41397</v>
       </c>
       <c r="D14">
-        <v>48.44</v>
+        <v>39.880000000000003</v>
       </c>
       <c r="E14" s="1">
-        <v>41556</v>
+        <v>41443</v>
       </c>
       <c r="F14">
-        <v>49.46</v>
+        <v>47.78</v>
       </c>
       <c r="G14" s="2">
-        <v>2.1100000000000001E-2</v>
+        <v>0.1981</v>
       </c>
       <c r="H14">
-        <v>23.46</v>
+        <v>205.4</v>
       </c>
       <c r="I14" s="2">
-        <v>2.1100000000000001E-2</v>
+        <v>0.1981</v>
       </c>
       <c r="J14">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>1114.1199999999999</v>
+        <v>1036.8800000000001</v>
       </c>
       <c r="L14">
-        <v>1304.54</v>
+        <v>945.92</v>
       </c>
       <c r="M14">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N14">
-        <v>0.71</v>
+        <v>6.42</v>
       </c>
       <c r="O14" s="2">
-        <v>-1.2E-2</v>
+        <v>-8.3000000000000001E-3</v>
       </c>
       <c r="P14" s="2">
-        <v>0.1608</v>
+        <v>0.3024</v>
       </c>
       <c r="Q14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R14">
+        <f t="shared" si="0"/>
+        <v>47.78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1">
-        <v>41563</v>
+        <v>41443</v>
       </c>
       <c r="D15">
-        <v>55.25</v>
+        <v>47.78</v>
       </c>
       <c r="E15" s="1">
-        <v>41661</v>
+        <v>41443</v>
       </c>
       <c r="F15">
-        <v>88.26</v>
+        <v>47.78</v>
       </c>
       <c r="G15" s="2">
-        <v>0.59750000000000003</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>660.2</v>
+        <v>0</v>
       </c>
       <c r="I15" s="2">
-        <v>0.59750000000000003</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K15">
-        <v>1105</v>
+        <v>1051.1600000000001</v>
       </c>
       <c r="L15">
-        <v>1964.74</v>
+        <v>945.92</v>
       </c>
       <c r="M15">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>9.85</v>
+        <v>0</v>
       </c>
       <c r="O15" s="2">
-        <v>-2.7900000000000001E-2</v>
+        <v>-2.2800000000000001E-2</v>
       </c>
       <c r="P15" s="2">
-        <v>0.76070000000000004</v>
+        <v>1.23E-2</v>
       </c>
       <c r="Q15" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R15">
+        <f t="shared" si="0"/>
+        <v>47.78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1">
-        <v>41691</v>
+        <v>41463</v>
       </c>
       <c r="D16">
-        <v>80.739999999999995</v>
+        <v>46.31</v>
       </c>
       <c r="E16" s="1">
-        <v>41704</v>
+        <v>41463</v>
       </c>
       <c r="F16">
-        <v>68.5</v>
+        <v>46.31</v>
       </c>
       <c r="G16" s="2">
-        <v>-0.15160000000000001</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>-171.36</v>
+        <v>0</v>
       </c>
       <c r="I16" s="2">
-        <v>-0.15160000000000001</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K16">
-        <v>1130.3599999999999</v>
+        <v>1065.1300000000001</v>
       </c>
       <c r="L16">
-        <v>1793.38</v>
+        <v>945.92</v>
       </c>
       <c r="M16">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N16">
-        <v>-17.14</v>
+        <v>0</v>
       </c>
       <c r="O16" s="2">
-        <v>-0.15160000000000001</v>
+        <v>-4.7300000000000002E-2</v>
       </c>
       <c r="P16" s="2">
-        <v>2.3699999999999999E-2</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="Q16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R16">
+        <f t="shared" si="0"/>
+        <v>46.31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1281,370 +1341,398 @@
         <v>18</v>
       </c>
       <c r="C17" s="1">
-        <v>41775</v>
+        <v>41488</v>
       </c>
       <c r="D17">
-        <v>48.37</v>
+        <v>47.42</v>
       </c>
       <c r="E17" s="1">
-        <v>41779</v>
+        <v>41499</v>
       </c>
       <c r="F17">
-        <v>49.32</v>
+        <v>49.21</v>
       </c>
       <c r="G17" s="2">
-        <v>1.9599999999999999E-2</v>
+        <v>3.7699999999999997E-2</v>
       </c>
       <c r="H17">
-        <v>22.8</v>
+        <v>41.17</v>
       </c>
       <c r="I17" s="2">
-        <v>1.9599999999999999E-2</v>
+        <v>3.7699999999999997E-2</v>
       </c>
       <c r="J17">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K17">
-        <v>1160.8800000000001</v>
+        <v>1090.6600000000001</v>
       </c>
       <c r="L17">
-        <v>1816.18</v>
+        <v>987.09</v>
       </c>
       <c r="M17">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N17">
-        <v>7.6</v>
+        <v>5.15</v>
       </c>
       <c r="O17" s="2">
-        <v>-2.63E-2</v>
+        <v>-6.1600000000000002E-2</v>
       </c>
       <c r="P17" s="2">
-        <v>3.0599999999999999E-2</v>
+        <v>5.6899999999999999E-2</v>
       </c>
       <c r="Q17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R17">
+        <f t="shared" si="0"/>
+        <v>49.21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1">
-        <v>41780</v>
+        <v>41499</v>
       </c>
       <c r="D18">
-        <v>50.78</v>
+        <v>49.21</v>
       </c>
       <c r="E18" s="1">
-        <v>41799</v>
+        <v>41499</v>
       </c>
       <c r="F18">
-        <v>50.16</v>
+        <v>49.21</v>
       </c>
       <c r="G18" s="2">
-        <v>-1.2200000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>-14.26</v>
+        <v>0</v>
       </c>
       <c r="I18" s="2">
-        <v>-1.2200000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K18">
-        <v>1167.94</v>
+        <v>1082.6199999999999</v>
       </c>
       <c r="L18">
-        <v>1801.92</v>
+        <v>987.09</v>
       </c>
       <c r="M18">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="N18">
-        <v>-1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="O18" s="2">
-        <v>-5.28E-2</v>
+        <v>-3.4299999999999997E-2</v>
       </c>
       <c r="P18" s="2">
-        <v>0.1215</v>
+        <v>9.2999999999999992E-3</v>
       </c>
       <c r="Q18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R18">
+        <f t="shared" si="0"/>
+        <v>49.21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1">
-        <v>41808</v>
+        <v>41509</v>
       </c>
       <c r="D19">
-        <v>53.7</v>
+        <v>48.44</v>
       </c>
       <c r="E19" s="1">
-        <v>41841</v>
+        <v>41509</v>
       </c>
       <c r="F19">
-        <v>56.6</v>
+        <v>48.44</v>
       </c>
       <c r="G19" s="2">
-        <v>5.3999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>60.9</v>
+        <v>0</v>
       </c>
       <c r="I19" s="2">
-        <v>5.3999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K19">
-        <v>1127.7</v>
+        <v>1065.68</v>
       </c>
       <c r="L19">
-        <v>1862.82</v>
+        <v>987.09</v>
       </c>
       <c r="M19">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="N19">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="O19" s="2">
-        <v>-1.7500000000000002E-2</v>
+        <v>-6.7999999999999996E-3</v>
       </c>
       <c r="P19" s="2">
-        <v>0.29530000000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="Q19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R19">
+        <f t="shared" si="0"/>
+        <v>48.44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1">
-        <v>41877</v>
+        <v>41563</v>
       </c>
       <c r="D20">
-        <v>51.44</v>
+        <v>55.25</v>
       </c>
       <c r="E20" s="1">
-        <v>41900</v>
+        <v>41563</v>
       </c>
       <c r="F20">
-        <v>50.32</v>
+        <v>55.25</v>
       </c>
       <c r="G20" s="2">
-        <v>-2.18E-2</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>-25.76</v>
+        <v>0</v>
       </c>
       <c r="I20" s="2">
-        <v>-2.18E-2</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K20">
-        <v>1183.1199999999999</v>
+        <v>1049.75</v>
       </c>
       <c r="L20">
-        <v>1837.06</v>
+        <v>987.09</v>
       </c>
       <c r="M20">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="N20">
-        <v>-1.52</v>
+        <v>0</v>
       </c>
       <c r="O20" s="2">
-        <v>-4.7399999999999998E-2</v>
+        <v>-4.4999999999999997E-3</v>
       </c>
       <c r="P20" s="2">
-        <v>5.4399999999999997E-2</v>
+        <v>2.7900000000000001E-2</v>
       </c>
       <c r="Q20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R20">
+        <f t="shared" si="0"/>
+        <v>55.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1">
-        <v>41968</v>
+        <v>41691</v>
       </c>
       <c r="D21">
-        <v>36.869999999999997</v>
+        <v>80.739999999999995</v>
       </c>
       <c r="E21" s="1">
-        <v>41974</v>
+        <v>41691</v>
       </c>
       <c r="F21">
-        <v>33.57</v>
+        <v>80.739999999999995</v>
       </c>
       <c r="G21" s="2">
-        <v>-8.9499999999999996E-2</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>-105.6</v>
+        <v>0</v>
       </c>
       <c r="I21" s="2">
-        <v>-8.9499999999999996E-2</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="K21">
-        <v>1179.8399999999999</v>
+        <v>1049.6199999999999</v>
       </c>
       <c r="L21">
-        <v>1731.46</v>
+        <v>987.09</v>
       </c>
       <c r="M21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>-26.4</v>
+        <v>0</v>
       </c>
       <c r="O21" s="2">
-        <v>-8.9499999999999996E-2</v>
+        <v>-2.3699999999999999E-2</v>
       </c>
       <c r="P21" s="2">
-        <v>3.2500000000000001E-2</v>
+        <v>1.61E-2</v>
       </c>
       <c r="Q21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R21">
+        <f t="shared" si="0"/>
+        <v>80.739999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1">
-        <v>42006</v>
+        <v>41775</v>
       </c>
       <c r="D22">
-        <v>32.42</v>
+        <v>48.37</v>
       </c>
       <c r="E22" s="1">
-        <v>42009</v>
+        <v>41775</v>
       </c>
       <c r="F22">
-        <v>30.74</v>
+        <v>48.37</v>
       </c>
       <c r="G22" s="2">
-        <v>-5.1799999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>-60.48</v>
+        <v>0</v>
       </c>
       <c r="I22" s="2">
-        <v>-5.1799999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="K22">
-        <v>1167.1199999999999</v>
+        <v>1064.1400000000001</v>
       </c>
       <c r="L22">
-        <v>1670.98</v>
+        <v>987.09</v>
       </c>
       <c r="M22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N22">
-        <v>-30.24</v>
+        <v>0</v>
       </c>
       <c r="O22" s="2">
-        <v>-5.1799999999999999E-2</v>
+        <v>-2.4199999999999999E-2</v>
       </c>
       <c r="P22" s="2">
-        <v>4.7800000000000002E-2</v>
+        <v>2.63E-2</v>
       </c>
       <c r="Q22" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R22">
+        <f t="shared" si="0"/>
+        <v>48.37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C23" s="1">
-        <v>42017</v>
+        <v>41780</v>
       </c>
       <c r="D23">
-        <v>30.88</v>
+        <v>50.78</v>
       </c>
       <c r="E23" s="1">
-        <v>42019</v>
+        <v>41780</v>
       </c>
       <c r="F23">
-        <v>28.33</v>
+        <v>50.78</v>
       </c>
       <c r="G23" s="2">
-        <v>-8.2600000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>-94.35</v>
+        <v>0</v>
       </c>
       <c r="I23" s="2">
-        <v>-8.2600000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="K23">
-        <v>1142.56</v>
+        <v>1066.3800000000001</v>
       </c>
       <c r="L23">
-        <v>1576.63</v>
+        <v>987.09</v>
       </c>
       <c r="M23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N23">
-        <v>-31.45</v>
+        <v>0</v>
       </c>
       <c r="O23" s="2">
-        <v>-8.2600000000000007E-2</v>
+        <v>-0.01</v>
       </c>
       <c r="P23" s="2">
-        <v>3.4299999999999997E-2</v>
+        <v>2.1700000000000001E-2</v>
       </c>
       <c r="Q23" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R23">
+        <f t="shared" si="0"/>
+        <v>50.78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -1652,158 +1740,170 @@
         <v>18</v>
       </c>
       <c r="C24" s="1">
-        <v>42047</v>
+        <v>41806</v>
       </c>
       <c r="D24">
-        <v>32.409999999999997</v>
+        <v>51.49</v>
       </c>
       <c r="E24" s="1">
-        <v>42066</v>
+        <v>41808</v>
       </c>
       <c r="F24">
-        <v>29.25</v>
+        <v>53.7</v>
       </c>
       <c r="G24" s="2">
-        <v>-9.7500000000000003E-2</v>
+        <v>4.2900000000000001E-2</v>
       </c>
       <c r="H24">
-        <v>-110.6</v>
+        <v>46.41</v>
       </c>
       <c r="I24" s="2">
-        <v>-9.7500000000000003E-2</v>
+        <v>4.2900000000000001E-2</v>
       </c>
       <c r="J24">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="K24">
-        <v>1134.3499999999999</v>
+        <v>1081.29</v>
       </c>
       <c r="L24">
-        <v>1466.03</v>
+        <v>1033.5</v>
       </c>
       <c r="M24">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="N24">
-        <v>-8.51</v>
+        <v>15.47</v>
       </c>
       <c r="O24" s="2">
-        <v>-0.10489999999999999</v>
+        <v>-4.0599999999999997E-2</v>
       </c>
       <c r="P24" s="2">
-        <v>2.3400000000000001E-2</v>
+        <v>0.06</v>
       </c>
       <c r="Q24" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R24">
+        <f t="shared" si="0"/>
+        <v>53.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C25" s="1">
-        <v>42101</v>
+        <v>41808</v>
       </c>
       <c r="D25">
-        <v>28.35</v>
+        <v>53.7</v>
       </c>
       <c r="E25" s="1">
-        <v>42121</v>
+        <v>41808</v>
       </c>
       <c r="F25">
-        <v>25.28</v>
+        <v>53.7</v>
       </c>
       <c r="G25" s="2">
-        <v>-0.10829999999999999</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>-122.8</v>
+        <v>0</v>
       </c>
       <c r="I25" s="2">
-        <v>-0.10829999999999999</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K25">
-        <v>1134</v>
+        <v>1074</v>
       </c>
       <c r="L25">
-        <v>1343.23</v>
+        <v>1033.5</v>
       </c>
       <c r="M25">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N25">
-        <v>-8.19</v>
+        <v>0</v>
       </c>
       <c r="O25" s="2">
-        <v>-0.10829999999999999</v>
+        <v>-9.2999999999999992E-3</v>
       </c>
       <c r="P25" s="2">
-        <v>0.1598</v>
+        <v>1.7500000000000002E-2</v>
       </c>
       <c r="Q25" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R25">
+        <f t="shared" si="0"/>
+        <v>53.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C26" s="1">
-        <v>42249</v>
+        <v>41877</v>
       </c>
       <c r="D26">
-        <v>13</v>
+        <v>51.44</v>
       </c>
       <c r="E26" s="1">
-        <v>42255</v>
+        <v>41877</v>
       </c>
       <c r="F26">
-        <v>13.3</v>
+        <v>51.44</v>
       </c>
       <c r="G26" s="2">
-        <v>2.3099999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>26.1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="2">
-        <v>2.3099999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="K26">
-        <v>1131</v>
+        <v>1080.24</v>
       </c>
       <c r="L26">
-        <v>1369.33</v>
+        <v>1033.5</v>
       </c>
       <c r="M26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N26">
-        <v>6.53</v>
+        <v>0</v>
       </c>
       <c r="O26" s="2">
-        <v>-3.9199999999999999E-2</v>
+        <v>-8.3999999999999995E-3</v>
       </c>
       <c r="P26" s="2">
-        <v>2.3099999999999999E-2</v>
+        <v>6.6E-3</v>
       </c>
       <c r="Q26" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R26">
+        <f t="shared" si="0"/>
+        <v>51.44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -1811,529 +1911,569 @@
         <v>18</v>
       </c>
       <c r="C27" s="1">
-        <v>42285</v>
+        <v>41912</v>
       </c>
       <c r="D27">
-        <v>13.75</v>
+        <v>46.37</v>
       </c>
       <c r="E27" s="1">
-        <v>42298</v>
+        <v>41919</v>
       </c>
       <c r="F27">
-        <v>12.09</v>
+        <v>42.61</v>
       </c>
       <c r="G27" s="2">
-        <v>-0.1207</v>
+        <v>-8.1100000000000005E-2</v>
       </c>
       <c r="H27">
-        <v>-136.12</v>
+        <v>-86.48</v>
       </c>
       <c r="I27" s="2">
-        <v>-0.1207</v>
+        <v>-8.1100000000000005E-2</v>
       </c>
       <c r="J27">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="K27">
-        <v>1127.5</v>
+        <v>1066.51</v>
       </c>
       <c r="L27">
-        <v>1233.21</v>
+        <v>947.02</v>
       </c>
       <c r="M27">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N27">
-        <v>-13.61</v>
+        <v>-14.41</v>
       </c>
       <c r="O27" s="2">
-        <v>-0.13089999999999999</v>
+        <v>-8.43E-2</v>
       </c>
       <c r="P27" s="2">
-        <v>1.3100000000000001E-2</v>
+        <v>2.4400000000000002E-2</v>
       </c>
       <c r="Q27" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R27">
+        <f t="shared" si="0"/>
+        <v>42.61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C28" s="1">
-        <v>42348</v>
+        <v>41968</v>
       </c>
       <c r="D28">
-        <v>9.65</v>
+        <v>36.869999999999997</v>
       </c>
       <c r="E28" s="1">
-        <v>42369</v>
+        <v>41968</v>
       </c>
       <c r="F28">
-        <v>8.69</v>
+        <v>36.869999999999997</v>
       </c>
       <c r="G28" s="2">
-        <v>-9.9500000000000005E-2</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>-111.36</v>
+        <v>0</v>
       </c>
       <c r="I28" s="2">
-        <v>-9.9500000000000005E-2</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="K28">
-        <v>1119.4000000000001</v>
+        <v>1069.23</v>
       </c>
       <c r="L28">
-        <v>1121.8499999999999</v>
+        <v>947.02</v>
       </c>
       <c r="M28">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N28">
-        <v>-7.42</v>
+        <v>0</v>
       </c>
       <c r="O28" s="2">
-        <v>-0.10879999999999999</v>
+        <v>-3.2500000000000001E-2</v>
       </c>
       <c r="P28" s="2">
-        <v>0.1119</v>
+        <v>6.7999999999999996E-3</v>
       </c>
       <c r="Q28" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R28">
+        <f t="shared" si="0"/>
+        <v>36.869999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C29" s="1">
-        <v>42404</v>
+        <v>42006</v>
       </c>
       <c r="D29">
-        <v>9.1300000000000008</v>
+        <v>32.42</v>
       </c>
       <c r="E29" s="1">
-        <v>42494</v>
+        <v>42006</v>
       </c>
       <c r="F29">
-        <v>14.51</v>
+        <v>32.42</v>
       </c>
       <c r="G29" s="2">
-        <v>0.58930000000000005</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>650.98</v>
+        <v>0</v>
       </c>
       <c r="I29" s="2">
-        <v>0.58930000000000005</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="K29">
-        <v>1104.73</v>
+        <v>1069.8599999999999</v>
       </c>
       <c r="L29">
-        <v>1772.83</v>
+        <v>947.02</v>
       </c>
       <c r="M29">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="N29">
-        <v>10.33</v>
+        <v>0</v>
       </c>
       <c r="O29" s="2">
-        <v>-0.1479</v>
+        <v>-4.7800000000000002E-2</v>
       </c>
       <c r="P29" s="2">
-        <v>1.1642999999999999</v>
+        <v>1.6299999999999999E-2</v>
       </c>
       <c r="Q29" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R29">
+        <f t="shared" si="0"/>
+        <v>32.42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C30" s="1">
-        <v>42524</v>
+        <v>42017</v>
       </c>
       <c r="D30">
-        <v>13.55</v>
+        <v>30.88</v>
       </c>
       <c r="E30" s="1">
-        <v>42535</v>
+        <v>42017</v>
       </c>
       <c r="F30">
-        <v>12.56</v>
+        <v>30.88</v>
       </c>
       <c r="G30" s="2">
-        <v>-7.3099999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>-85.14</v>
+        <v>0</v>
       </c>
       <c r="I30" s="2">
-        <v>-7.3099999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="K30">
-        <v>1165.3</v>
+        <v>1080.8</v>
       </c>
       <c r="L30">
-        <v>1687.69</v>
+        <v>947.02</v>
       </c>
       <c r="M30">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="N30">
-        <v>-10.64</v>
+        <v>0</v>
       </c>
       <c r="O30" s="2">
-        <v>-0.1011</v>
+        <v>-3.4299999999999997E-2</v>
       </c>
       <c r="P30" s="2">
-        <v>4.87E-2</v>
+        <v>1.55E-2</v>
       </c>
       <c r="Q30" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R30">
+        <f t="shared" si="0"/>
+        <v>30.88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C31" s="1">
-        <v>42542</v>
+        <v>42047</v>
       </c>
       <c r="D31">
-        <v>13.6</v>
+        <v>32.409999999999997</v>
       </c>
       <c r="E31" s="1">
-        <v>42548</v>
+        <v>42047</v>
       </c>
       <c r="F31">
-        <v>11.67</v>
+        <v>32.409999999999997</v>
       </c>
       <c r="G31" s="2">
-        <v>-0.1419</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>-164.05</v>
+        <v>0</v>
       </c>
       <c r="I31" s="2">
-        <v>-0.1419</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="K31">
-        <v>1156</v>
+        <v>1069.53</v>
       </c>
       <c r="L31">
-        <v>1523.64</v>
+        <v>947.02</v>
       </c>
       <c r="M31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N31">
-        <v>-32.81</v>
+        <v>0</v>
       </c>
       <c r="O31" s="2">
-        <v>-0.1419</v>
+        <v>-2.3400000000000001E-2</v>
       </c>
       <c r="P31" s="2">
-        <v>4.19E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="Q31" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R31">
+        <f t="shared" si="0"/>
+        <v>32.409999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C32" s="1">
-        <v>42557</v>
+        <v>42101</v>
       </c>
       <c r="D32">
-        <v>13.19</v>
+        <v>28.35</v>
       </c>
       <c r="E32" s="1">
-        <v>42573</v>
+        <v>42101</v>
       </c>
       <c r="F32">
-        <v>13.3</v>
+        <v>28.35</v>
       </c>
       <c r="G32" s="2">
-        <v>8.3000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>9.57</v>
+        <v>0</v>
       </c>
       <c r="I32" s="2">
-        <v>8.3000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="K32">
-        <v>1147.53</v>
+        <v>1077.3</v>
       </c>
       <c r="L32">
-        <v>1533.21</v>
+        <v>947.02</v>
       </c>
       <c r="M32">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="N32">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="O32" s="2">
-        <v>-4.1700000000000001E-2</v>
+        <v>-3.49E-2</v>
       </c>
       <c r="P32" s="2">
-        <v>0.15090000000000001</v>
+        <v>1.8E-3</v>
       </c>
       <c r="Q32" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R32">
+        <f t="shared" si="0"/>
+        <v>28.35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C33" s="1">
-        <v>42587</v>
+        <v>42249</v>
       </c>
       <c r="D33">
-        <v>14.77</v>
+        <v>13</v>
       </c>
       <c r="E33" s="1">
-        <v>42619</v>
+        <v>42249</v>
       </c>
       <c r="F33">
-        <v>15.75</v>
+        <v>13</v>
       </c>
       <c r="G33" s="2">
-        <v>6.6400000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>76.44</v>
+        <v>0</v>
       </c>
       <c r="I33" s="2">
-        <v>6.6400000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K33">
-        <v>1152.06</v>
+        <v>1092</v>
       </c>
       <c r="L33">
-        <v>1609.65</v>
+        <v>947.02</v>
       </c>
       <c r="M33">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="N33">
-        <v>3.47</v>
+        <v>0</v>
       </c>
       <c r="O33" s="2">
-        <v>-5.3499999999999999E-2</v>
+        <v>-6.8999999999999999E-3</v>
       </c>
       <c r="P33" s="2">
-        <v>0.12189999999999999</v>
+        <v>3.9199999999999999E-2</v>
       </c>
       <c r="Q33" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R33">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C34" s="1">
-        <v>42625</v>
+        <v>42285</v>
       </c>
       <c r="D34">
-        <v>15.49</v>
+        <v>13.75</v>
       </c>
       <c r="E34" s="1">
-        <v>42626</v>
+        <v>42285</v>
       </c>
       <c r="F34">
-        <v>15.16</v>
+        <v>13.75</v>
       </c>
       <c r="G34" s="2">
-        <v>-2.1299999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>-24.42</v>
+        <v>0</v>
       </c>
       <c r="I34" s="2">
-        <v>-2.1299999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K34">
-        <v>1146.26</v>
+        <v>1086.25</v>
       </c>
       <c r="L34">
-        <v>1585.23</v>
+        <v>947.02</v>
       </c>
       <c r="M34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N34">
-        <v>-12.21</v>
+        <v>0</v>
       </c>
       <c r="O34" s="2">
-        <v>-4.8399999999999999E-2</v>
+        <v>-1.3100000000000001E-2</v>
       </c>
       <c r="P34" s="2">
-        <v>5.1999999999999998E-3</v>
+        <v>4.36E-2</v>
       </c>
       <c r="Q34" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R34">
+        <f t="shared" si="0"/>
+        <v>13.75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C35" s="1">
-        <v>42629</v>
+        <v>42348</v>
       </c>
       <c r="D35">
-        <v>15.82</v>
+        <v>9.65</v>
       </c>
       <c r="E35" s="1">
-        <v>42656</v>
+        <v>42348</v>
       </c>
       <c r="F35">
-        <v>14.82</v>
+        <v>9.65</v>
       </c>
       <c r="G35" s="2">
-        <v>-6.3200000000000006E-2</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>-73</v>
+        <v>0</v>
       </c>
       <c r="I35" s="2">
-        <v>-6.3200000000000006E-2</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="K35">
-        <v>1154.8599999999999</v>
+        <v>1090.45</v>
       </c>
       <c r="L35">
-        <v>1512.23</v>
+        <v>947.02</v>
       </c>
       <c r="M35">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N35">
-        <v>-3.65</v>
+        <v>0</v>
       </c>
       <c r="O35" s="2">
-        <v>-6.3200000000000006E-2</v>
+        <v>-1.55E-2</v>
       </c>
       <c r="P35" s="2">
-        <v>0.17</v>
+        <v>2.5899999999999999E-2</v>
       </c>
       <c r="Q35" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R35">
+        <f t="shared" si="0"/>
+        <v>9.65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C36" s="1">
-        <v>42689</v>
+        <v>42404</v>
       </c>
       <c r="D36">
-        <v>13.91</v>
+        <v>9.1300000000000008</v>
       </c>
       <c r="E36" s="1">
-        <v>42706</v>
+        <v>42404</v>
       </c>
       <c r="F36">
-        <v>13.54</v>
+        <v>9.1300000000000008</v>
       </c>
       <c r="G36" s="2">
-        <v>-2.6599999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>-30.34</v>
+        <v>0</v>
       </c>
       <c r="I36" s="2">
-        <v>-2.6599999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="K36">
-        <v>1140.6199999999999</v>
+        <v>1086.47</v>
       </c>
       <c r="L36">
-        <v>1481.89</v>
+        <v>947.02</v>
       </c>
       <c r="M36">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="N36">
-        <v>-2.33</v>
+        <v>0</v>
       </c>
       <c r="O36" s="2">
-        <v>-5.2499999999999998E-2</v>
+        <v>-2.52E-2</v>
       </c>
       <c r="P36" s="2">
-        <v>9.1300000000000006E-2</v>
+        <v>7.5600000000000001E-2</v>
       </c>
       <c r="Q36" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R36">
+        <f t="shared" si="0"/>
+        <v>9.1300000000000008</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -2341,211 +2481,227 @@
         <v>18</v>
       </c>
       <c r="C37" s="1">
-        <v>42710</v>
+        <v>42432</v>
       </c>
       <c r="D37">
-        <v>15.15</v>
+        <v>12.55</v>
       </c>
       <c r="E37" s="1">
-        <v>42727</v>
+        <v>42515</v>
       </c>
       <c r="F37">
-        <v>14.23</v>
+        <v>13.22</v>
       </c>
       <c r="G37" s="2">
-        <v>-6.0699999999999997E-2</v>
+        <v>5.3400000000000003E-2</v>
       </c>
       <c r="H37">
-        <v>-69</v>
+        <v>58.29</v>
       </c>
       <c r="I37" s="2">
-        <v>-6.0699999999999997E-2</v>
+        <v>5.3400000000000003E-2</v>
       </c>
       <c r="J37">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K37">
-        <v>1136.25</v>
+        <v>1091.8499999999999</v>
       </c>
       <c r="L37">
-        <v>1412.89</v>
+        <v>1005.31</v>
       </c>
       <c r="M37">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="N37">
-        <v>-4.93</v>
+        <v>0.99</v>
       </c>
       <c r="O37" s="2">
-        <v>-6.6000000000000003E-2</v>
+        <v>-0.1227</v>
       </c>
       <c r="P37" s="2">
-        <v>3.7600000000000001E-2</v>
+        <v>0.57450000000000001</v>
       </c>
       <c r="Q37" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R37">
+        <f t="shared" si="0"/>
+        <v>13.22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C38" s="1">
-        <v>42744</v>
+        <v>42524</v>
       </c>
       <c r="D38">
-        <v>16.73</v>
+        <v>13.55</v>
       </c>
       <c r="E38" s="1">
-        <v>42793</v>
+        <v>42524</v>
       </c>
       <c r="F38">
-        <v>16.940000000000001</v>
+        <v>13.55</v>
       </c>
       <c r="G38" s="2">
-        <v>1.26E-2</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>14.28</v>
+        <v>0</v>
       </c>
       <c r="I38" s="2">
-        <v>1.26E-2</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="K38">
-        <v>1137.6400000000001</v>
+        <v>1097.55</v>
       </c>
       <c r="L38">
-        <v>1427.17</v>
+        <v>1005.31</v>
       </c>
       <c r="M38">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="N38">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="O38" s="2">
-        <v>-0.14410000000000001</v>
+        <v>-2.7300000000000001E-2</v>
       </c>
       <c r="P38" s="2">
-        <v>5.6800000000000003E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="Q38" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R38">
+        <f t="shared" si="0"/>
+        <v>13.55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C39" s="1">
-        <v>42825</v>
+        <v>42542</v>
       </c>
       <c r="D39">
-        <v>14.96</v>
+        <v>13.6</v>
       </c>
       <c r="E39" s="1">
-        <v>42835</v>
+        <v>42542</v>
       </c>
       <c r="F39">
-        <v>14.29</v>
+        <v>13.6</v>
       </c>
       <c r="G39" s="2">
-        <v>-4.48E-2</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>-50.92</v>
+        <v>0</v>
       </c>
       <c r="I39" s="2">
-        <v>-4.48E-2</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K39">
-        <v>1136.96</v>
+        <v>1088</v>
       </c>
       <c r="L39">
-        <v>1376.25</v>
+        <v>1005.31</v>
       </c>
       <c r="M39">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N39">
-        <v>-7.27</v>
+        <v>0</v>
       </c>
       <c r="O39" s="2">
-        <v>-5.6099999999999997E-2</v>
+        <v>-7.4000000000000003E-3</v>
       </c>
       <c r="P39" s="2">
-        <v>1.7399999999999999E-2</v>
+        <v>1.54E-2</v>
       </c>
       <c r="Q39" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R39">
+        <f t="shared" si="0"/>
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C40" s="1">
-        <v>42842</v>
+        <v>42557</v>
       </c>
       <c r="D40">
-        <v>14.88</v>
+        <v>13.19</v>
       </c>
       <c r="E40" s="1">
-        <v>42893</v>
+        <v>42557</v>
       </c>
       <c r="F40">
-        <v>20.74</v>
+        <v>13.19</v>
       </c>
       <c r="G40" s="2">
-        <v>0.39379999999999998</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>445.36</v>
+        <v>0</v>
       </c>
       <c r="I40" s="2">
-        <v>0.39379999999999998</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K40">
-        <v>1130.8800000000001</v>
+        <v>1094.77</v>
       </c>
       <c r="L40">
-        <v>1821.61</v>
+        <v>1005.31</v>
       </c>
       <c r="M40">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="N40">
-        <v>12.04</v>
+        <v>0</v>
       </c>
       <c r="O40" s="2">
-        <v>-4.6399999999999997E-2</v>
+        <v>-1.29E-2</v>
       </c>
       <c r="P40" s="2">
-        <v>0.5927</v>
+        <v>4.1700000000000001E-2</v>
       </c>
       <c r="Q40" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R40">
+        <f t="shared" si="0"/>
+        <v>13.19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -2553,317 +2709,341 @@
         <v>18</v>
       </c>
       <c r="C41" s="1">
-        <v>42907</v>
+        <v>42563</v>
       </c>
       <c r="D41">
-        <v>21.69</v>
+        <v>14.69</v>
       </c>
       <c r="E41" s="1">
-        <v>42915</v>
+        <v>42587</v>
       </c>
       <c r="F41">
-        <v>20.190000000000001</v>
+        <v>14.77</v>
       </c>
       <c r="G41" s="2">
-        <v>-6.9199999999999998E-2</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="H41">
-        <v>-81</v>
+        <v>5.92</v>
       </c>
       <c r="I41" s="2">
-        <v>-6.9199999999999998E-2</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="J41">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="K41">
-        <v>1171.26</v>
+        <v>1087.06</v>
       </c>
       <c r="L41">
-        <v>1740.61</v>
+        <v>1011.23</v>
       </c>
       <c r="M41">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="N41">
-        <v>-11.57</v>
+        <v>0.31</v>
       </c>
       <c r="O41" s="2">
-        <v>-6.9199999999999998E-2</v>
+        <v>-0.1845</v>
       </c>
       <c r="P41" s="2">
-        <v>3.1800000000000002E-2</v>
+        <v>3.3399999999999999E-2</v>
       </c>
       <c r="Q41" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R41">
+        <f t="shared" si="0"/>
+        <v>14.77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C42" s="1">
-        <v>42984</v>
+        <v>42587</v>
       </c>
       <c r="D42">
-        <v>13.09</v>
+        <v>14.77</v>
       </c>
       <c r="E42" s="1">
-        <v>43018</v>
+        <v>42587</v>
       </c>
       <c r="F42">
-        <v>12.68</v>
+        <v>14.77</v>
       </c>
       <c r="G42" s="2">
-        <v>-3.1300000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>-36.49</v>
+        <v>0</v>
       </c>
       <c r="I42" s="2">
-        <v>-3.1300000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="K42">
-        <v>1165.01</v>
+        <v>1092.98</v>
       </c>
       <c r="L42">
-        <v>1704.12</v>
+        <v>1011.23</v>
       </c>
       <c r="M42">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="N42">
-        <v>-1.46</v>
+        <v>0</v>
       </c>
       <c r="O42" s="2">
-        <v>-3.1300000000000001E-2</v>
+        <v>-1.83E-2</v>
       </c>
       <c r="P42" s="2">
-        <v>0.1031</v>
+        <v>3.32E-2</v>
       </c>
       <c r="Q42" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R42">
+        <f t="shared" si="0"/>
+        <v>14.77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>17</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C43" s="1">
-        <v>43074</v>
+        <v>42625</v>
       </c>
       <c r="D43">
-        <v>9.61</v>
+        <v>15.49</v>
       </c>
       <c r="E43" s="1">
-        <v>43097</v>
+        <v>42625</v>
       </c>
       <c r="F43">
-        <v>8.76</v>
+        <v>15.49</v>
       </c>
       <c r="G43" s="2">
-        <v>-8.8400000000000006E-2</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>-102.85</v>
+        <v>0</v>
       </c>
       <c r="I43" s="2">
-        <v>-8.8400000000000006E-2</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="K43">
-        <v>1162.81</v>
+        <v>1099.79</v>
       </c>
       <c r="L43">
-        <v>1601.27</v>
+        <v>1011.23</v>
       </c>
       <c r="M43">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="N43">
-        <v>-6.05</v>
+        <v>0</v>
       </c>
       <c r="O43" s="2">
-        <v>-8.8400000000000006E-2</v>
+        <v>-5.1999999999999998E-3</v>
       </c>
       <c r="P43" s="2">
-        <v>0.1061</v>
+        <v>4.8399999999999999E-2</v>
       </c>
       <c r="Q43" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R43">
+        <f t="shared" si="0"/>
+        <v>15.49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C44" s="1">
-        <v>43111</v>
+        <v>42629</v>
       </c>
       <c r="D44">
-        <v>10.29</v>
+        <v>15.82</v>
       </c>
       <c r="E44" s="1">
-        <v>43136</v>
+        <v>42629</v>
       </c>
       <c r="F44">
-        <v>9.07</v>
+        <v>15.82</v>
       </c>
       <c r="G44" s="2">
-        <v>-0.1186</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>-136.63999999999999</v>
+        <v>0</v>
       </c>
       <c r="I44" s="2">
-        <v>-0.1186</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="K44">
-        <v>1152.48</v>
+        <v>1091.58</v>
       </c>
       <c r="L44">
-        <v>1464.63</v>
+        <v>1011.23</v>
       </c>
       <c r="M44">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="N44">
-        <v>-8.0399999999999991</v>
+        <v>0</v>
       </c>
       <c r="O44" s="2">
-        <v>-0.1186</v>
+        <v>-2.7199999999999998E-2</v>
       </c>
       <c r="P44" s="2">
-        <v>0.1467</v>
+        <v>1.9E-3</v>
       </c>
       <c r="Q44" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R44">
+        <f t="shared" si="0"/>
+        <v>15.82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>17</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C45" s="1">
-        <v>43157</v>
+        <v>42689</v>
       </c>
       <c r="D45">
-        <v>10.37</v>
+        <v>13.91</v>
       </c>
       <c r="E45" s="1">
-        <v>43159</v>
+        <v>42689</v>
       </c>
       <c r="F45">
-        <v>9.5</v>
+        <v>13.91</v>
       </c>
       <c r="G45" s="2">
-        <v>-8.3900000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>-95.7</v>
+        <v>0</v>
       </c>
       <c r="I45" s="2">
-        <v>-8.3900000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="K45">
-        <v>1140.7</v>
+        <v>1098.8900000000001</v>
       </c>
       <c r="L45">
-        <v>1368.93</v>
+        <v>1011.23</v>
       </c>
       <c r="M45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N45">
-        <v>-31.9</v>
+        <v>0</v>
       </c>
       <c r="O45" s="2">
-        <v>-8.3900000000000002E-2</v>
+        <v>-1.9400000000000001E-2</v>
       </c>
       <c r="P45" s="2">
-        <v>2.3099999999999999E-2</v>
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="Q45" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R45">
+        <f t="shared" si="0"/>
+        <v>13.91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>17</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C46" s="1">
-        <v>43160</v>
+        <v>42710</v>
       </c>
       <c r="D46">
-        <v>10.74</v>
+        <v>15.15</v>
       </c>
       <c r="E46" s="1">
-        <v>43187</v>
+        <v>42710</v>
       </c>
       <c r="F46">
-        <v>11.3</v>
+        <v>15.15</v>
       </c>
       <c r="G46" s="2">
-        <v>5.21E-2</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>58.8</v>
+        <v>0</v>
       </c>
       <c r="I46" s="2">
-        <v>5.21E-2</v>
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="K46">
-        <v>1127.7</v>
+        <v>1090.8</v>
       </c>
       <c r="L46">
-        <v>1427.73</v>
+        <v>1011.23</v>
       </c>
       <c r="M46">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N46">
-        <v>2.94</v>
+        <v>0</v>
       </c>
       <c r="O46" s="2">
-        <v>-4.1000000000000002E-2</v>
+        <v>-7.9000000000000008E-3</v>
       </c>
       <c r="P46" s="2">
-        <v>0.27560000000000001</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="Q46" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R46">
+        <f t="shared" si="0"/>
+        <v>15.15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -2871,158 +3051,170 @@
         <v>18</v>
       </c>
       <c r="C47" s="1">
-        <v>43203</v>
+        <v>42723</v>
       </c>
       <c r="D47">
-        <v>11.93</v>
+        <v>15.09</v>
       </c>
       <c r="E47" s="1">
-        <v>43214</v>
+        <v>42744</v>
       </c>
       <c r="F47">
-        <v>11.21</v>
+        <v>16.73</v>
       </c>
       <c r="G47" s="2">
-        <v>-6.0400000000000002E-2</v>
+        <v>0.1087</v>
       </c>
       <c r="H47">
-        <v>-68.400000000000006</v>
+        <v>118.08</v>
       </c>
       <c r="I47" s="2">
-        <v>-6.0400000000000002E-2</v>
+        <v>0.1087</v>
       </c>
       <c r="J47">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="K47">
-        <v>1133.3499999999999</v>
+        <v>1086.48</v>
       </c>
       <c r="L47">
-        <v>1359.33</v>
+        <v>1129.31</v>
       </c>
       <c r="M47">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N47">
-        <v>-8.5500000000000007</v>
+        <v>8.43</v>
       </c>
       <c r="O47" s="2">
-        <v>-6.0400000000000002E-2</v>
+        <v>-0.12790000000000001</v>
       </c>
       <c r="P47" s="2">
-        <v>2.18E-2</v>
+        <v>0.1087</v>
       </c>
       <c r="Q47" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R47">
+        <f t="shared" si="0"/>
+        <v>16.73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C48" s="1">
-        <v>43231</v>
+        <v>42744</v>
       </c>
       <c r="D48">
-        <v>12.03</v>
+        <v>16.73</v>
       </c>
       <c r="E48" s="1">
-        <v>43283</v>
+        <v>42744</v>
       </c>
       <c r="F48">
-        <v>14.09</v>
+        <v>16.73</v>
       </c>
       <c r="G48" s="2">
-        <v>0.17119999999999999</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>193.64</v>
+        <v>0</v>
       </c>
       <c r="I48" s="2">
-        <v>0.17119999999999999</v>
+        <v>0</v>
       </c>
       <c r="J48">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="K48">
-        <v>1130.82</v>
+        <v>1087.45</v>
       </c>
       <c r="L48">
-        <v>1552.97</v>
+        <v>1129.31</v>
       </c>
       <c r="M48">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="N48">
-        <v>5.38</v>
+        <v>0</v>
       </c>
       <c r="O48" s="2">
-        <v>-0.02</v>
+        <v>-1.26E-2</v>
       </c>
       <c r="P48" s="2">
-        <v>0.27510000000000001</v>
+        <v>0.14410000000000001</v>
       </c>
       <c r="Q48" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R48">
+        <f t="shared" si="0"/>
+        <v>16.73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C49" s="1">
-        <v>43286</v>
+        <v>42825</v>
       </c>
       <c r="D49">
-        <v>14.42</v>
+        <v>14.96</v>
       </c>
       <c r="E49" s="1">
-        <v>43307</v>
+        <v>42825</v>
       </c>
       <c r="F49">
-        <v>13.17</v>
+        <v>14.96</v>
       </c>
       <c r="G49" s="2">
-        <v>-8.6699999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I49" s="2">
-        <v>-8.6699999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K49">
-        <v>1153.5999999999999</v>
+        <v>1107.04</v>
       </c>
       <c r="L49">
-        <v>1452.97</v>
+        <v>1129.31</v>
       </c>
       <c r="M49">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N49">
-        <v>-6.25</v>
+        <v>0</v>
       </c>
       <c r="O49" s="2">
-        <v>-8.7400000000000005E-2</v>
+        <v>-8.0000000000000002E-3</v>
       </c>
       <c r="P49" s="2">
-        <v>0.10539999999999999</v>
+        <v>1.8700000000000001E-2</v>
       </c>
       <c r="Q49" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R49">
+        <f t="shared" si="0"/>
+        <v>14.96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -3030,49 +3222,851 @@
         <v>20</v>
       </c>
       <c r="C50" s="1">
-        <v>43321</v>
+        <v>42842</v>
       </c>
       <c r="D50">
-        <v>18.16</v>
+        <v>14.88</v>
       </c>
       <c r="E50" s="1">
-        <v>43325</v>
+        <v>42842</v>
       </c>
       <c r="F50">
-        <v>17.920000000000002</v>
+        <v>14.88</v>
       </c>
       <c r="G50" s="2">
-        <v>-1.32E-2</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>-15.12</v>
+        <v>0</v>
       </c>
       <c r="I50" s="2">
-        <v>-1.32E-2</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="K50">
-        <v>1144.08</v>
+        <v>1101.1199999999999</v>
       </c>
       <c r="L50">
-        <v>1437.85</v>
+        <v>1129.31</v>
       </c>
       <c r="M50">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N50">
-        <v>-3.78</v>
+        <v>0</v>
       </c>
       <c r="O50" s="2">
-        <v>-5.1200000000000002E-2</v>
+        <v>-6.9999999999999999E-4</v>
       </c>
       <c r="P50" s="2">
-        <v>0.1013</v>
+        <v>4.6399999999999997E-2</v>
       </c>
       <c r="Q50" t="s">
         <v>19</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="0"/>
+        <v>14.88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" s="1">
+        <v>42859</v>
+      </c>
+      <c r="D51">
+        <v>16.079999999999998</v>
+      </c>
+      <c r="E51" s="1">
+        <v>42907</v>
+      </c>
+      <c r="F51">
+        <v>21.69</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0.34889999999999999</v>
+      </c>
+      <c r="H51">
+        <v>387.09</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0.34889999999999999</v>
+      </c>
+      <c r="J51">
+        <v>69</v>
+      </c>
+      <c r="K51">
+        <v>1109.52</v>
+      </c>
+      <c r="L51">
+        <v>1516.4</v>
+      </c>
+      <c r="M51">
+        <v>34</v>
+      </c>
+      <c r="N51">
+        <v>11.39</v>
+      </c>
+      <c r="O51" s="2">
+        <v>-7.9000000000000001E-2</v>
+      </c>
+      <c r="P51" s="2">
+        <v>0.47389999999999999</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>19</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="0"/>
+        <v>21.69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" s="1">
+        <v>42907</v>
+      </c>
+      <c r="D52">
+        <v>21.69</v>
+      </c>
+      <c r="E52" s="1">
+        <v>42907</v>
+      </c>
+      <c r="F52">
+        <v>21.69</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52" s="2">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>53</v>
+      </c>
+      <c r="K52">
+        <v>1149.57</v>
+      </c>
+      <c r="L52">
+        <v>1516.4</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52" s="2">
+        <v>-1.06E-2</v>
+      </c>
+      <c r="P52" s="2">
+        <v>1.2E-2</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>19</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="0"/>
+        <v>21.69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="1">
+        <v>42984</v>
+      </c>
+      <c r="D53">
+        <v>13.09</v>
+      </c>
+      <c r="E53" s="1">
+        <v>42984</v>
+      </c>
+      <c r="F53">
+        <v>13.09</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>87</v>
+      </c>
+      <c r="K53">
+        <v>1138.83</v>
+      </c>
+      <c r="L53">
+        <v>1516.4</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53" s="2">
+        <v>-2.3699999999999999E-2</v>
+      </c>
+      <c r="P53" s="2">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>19</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="0"/>
+        <v>13.09</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="1">
+        <v>43018</v>
+      </c>
+      <c r="D54">
+        <v>12.68</v>
+      </c>
+      <c r="E54" s="1">
+        <v>43035</v>
+      </c>
+      <c r="F54">
+        <v>11.54</v>
+      </c>
+      <c r="G54" s="2">
+        <v>-8.9899999999999994E-2</v>
+      </c>
+      <c r="H54">
+        <v>-102.6</v>
+      </c>
+      <c r="I54" s="2">
+        <v>-8.9899999999999994E-2</v>
+      </c>
+      <c r="J54">
+        <v>90</v>
+      </c>
+      <c r="K54">
+        <v>1141.2</v>
+      </c>
+      <c r="L54">
+        <v>1413.8</v>
+      </c>
+      <c r="M54">
+        <v>14</v>
+      </c>
+      <c r="N54">
+        <v>-7.33</v>
+      </c>
+      <c r="O54" s="2">
+        <v>-0.10249999999999999</v>
+      </c>
+      <c r="P54" s="2">
+        <v>5.0500000000000003E-2</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>19</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="0"/>
+        <v>11.54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="1">
+        <v>43074</v>
+      </c>
+      <c r="D55">
+        <v>9.61</v>
+      </c>
+      <c r="E55" s="1">
+        <v>43074</v>
+      </c>
+      <c r="F55">
+        <v>9.61</v>
+      </c>
+      <c r="G55" s="2">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55" s="2">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>118</v>
+      </c>
+      <c r="K55">
+        <v>1133.98</v>
+      </c>
+      <c r="L55">
+        <v>1413.8</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55" s="2">
+        <v>-1.5599999999999999E-2</v>
+      </c>
+      <c r="P55" s="2">
+        <v>6.8699999999999997E-2</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>19</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="0"/>
+        <v>9.61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="1">
+        <v>43108</v>
+      </c>
+      <c r="D56">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E56" s="1">
+        <v>43111</v>
+      </c>
+      <c r="F56">
+        <v>10.29</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0.1065</v>
+      </c>
+      <c r="H56">
+        <v>120.78</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0.1065</v>
+      </c>
+      <c r="J56">
+        <v>122</v>
+      </c>
+      <c r="K56">
+        <v>1134.5999999999999</v>
+      </c>
+      <c r="L56">
+        <v>1534.58</v>
+      </c>
+      <c r="M56">
+        <v>4</v>
+      </c>
+      <c r="N56">
+        <v>30.19</v>
+      </c>
+      <c r="O56" s="2">
+        <v>-1.0800000000000001E-2</v>
+      </c>
+      <c r="P56" s="2">
+        <v>0.1065</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>19</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="0"/>
+        <v>10.29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" s="1">
+        <v>43111</v>
+      </c>
+      <c r="D57">
+        <v>10.29</v>
+      </c>
+      <c r="E57" s="1">
+        <v>43111</v>
+      </c>
+      <c r="F57">
+        <v>10.29</v>
+      </c>
+      <c r="G57" s="2">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57" s="2">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>111</v>
+      </c>
+      <c r="K57">
+        <v>1142.19</v>
+      </c>
+      <c r="L57">
+        <v>1534.58</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57" s="2">
+        <v>-1E-3</v>
+      </c>
+      <c r="P57" s="2">
+        <v>6.4100000000000004E-2</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>19</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="0"/>
+        <v>10.29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="1">
+        <v>43157</v>
+      </c>
+      <c r="D58">
+        <v>10.37</v>
+      </c>
+      <c r="E58" s="1">
+        <v>43157</v>
+      </c>
+      <c r="F58">
+        <v>10.37</v>
+      </c>
+      <c r="G58" s="2">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58" s="2">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>111</v>
+      </c>
+      <c r="K58">
+        <v>1151.07</v>
+      </c>
+      <c r="L58">
+        <v>1534.58</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58" s="2">
+        <v>-1.83E-2</v>
+      </c>
+      <c r="P58" s="2">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>19</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="0"/>
+        <v>10.37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" s="1">
+        <v>43160</v>
+      </c>
+      <c r="D59">
+        <v>10.74</v>
+      </c>
+      <c r="E59" s="1">
+        <v>43160</v>
+      </c>
+      <c r="F59">
+        <v>10.74</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59" s="2">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>107</v>
+      </c>
+      <c r="K59">
+        <v>1149.18</v>
+      </c>
+      <c r="L59">
+        <v>1534.58</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59" s="2">
+        <v>-7.8200000000000006E-2</v>
+      </c>
+      <c r="P59" s="2">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>19</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="0"/>
+        <v>10.74</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>17</v>
+      </c>
+      <c r="B60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" s="1">
+        <v>43203</v>
+      </c>
+      <c r="D60">
+        <v>11.93</v>
+      </c>
+      <c r="E60" s="1">
+        <v>43203</v>
+      </c>
+      <c r="F60">
+        <v>11.93</v>
+      </c>
+      <c r="G60" s="2">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60" s="2">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>96</v>
+      </c>
+      <c r="K60">
+        <v>1145.28</v>
+      </c>
+      <c r="L60">
+        <v>1534.58</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60" s="2">
+        <v>-1.4200000000000001E-2</v>
+      </c>
+      <c r="P60" s="2">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>19</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="0"/>
+        <v>11.93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="1">
+        <v>43231</v>
+      </c>
+      <c r="D61">
+        <v>12.03</v>
+      </c>
+      <c r="E61" s="1">
+        <v>43231</v>
+      </c>
+      <c r="F61">
+        <v>12.03</v>
+      </c>
+      <c r="G61" s="2">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61" s="2">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>95</v>
+      </c>
+      <c r="K61">
+        <v>1142.8499999999999</v>
+      </c>
+      <c r="L61">
+        <v>1534.58</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61" s="2">
+        <v>-4.9000000000000002E-2</v>
+      </c>
+      <c r="P61" s="2">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>19</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="0"/>
+        <v>12.03</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" s="1">
+        <v>43252</v>
+      </c>
+      <c r="D62">
+        <v>12.45</v>
+      </c>
+      <c r="E62" s="1">
+        <v>43286</v>
+      </c>
+      <c r="F62">
+        <v>14.42</v>
+      </c>
+      <c r="G62" s="2">
+        <v>0.15820000000000001</v>
+      </c>
+      <c r="H62">
+        <v>181.24</v>
+      </c>
+      <c r="I62" s="2">
+        <v>0.15820000000000001</v>
+      </c>
+      <c r="J62">
+        <v>92</v>
+      </c>
+      <c r="K62">
+        <v>1145.4000000000001</v>
+      </c>
+      <c r="L62">
+        <v>1715.82</v>
+      </c>
+      <c r="M62">
+        <v>24</v>
+      </c>
+      <c r="N62">
+        <v>7.55</v>
+      </c>
+      <c r="O62" s="2">
+        <v>-2.01E-2</v>
+      </c>
+      <c r="P62" s="2">
+        <v>0.2321</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>19</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="0"/>
+        <v>14.42</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" s="1">
+        <v>43286</v>
+      </c>
+      <c r="D63">
+        <v>14.42</v>
+      </c>
+      <c r="E63" s="1">
+        <v>43286</v>
+      </c>
+      <c r="F63">
+        <v>14.42</v>
+      </c>
+      <c r="G63" s="2">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63" s="2">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>80</v>
+      </c>
+      <c r="K63">
+        <v>1153.5999999999999</v>
+      </c>
+      <c r="L63">
+        <v>1715.82</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63" s="2">
+        <v>-1.4E-3</v>
+      </c>
+      <c r="P63" s="2">
+        <v>2.8400000000000002E-2</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>19</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="0"/>
+        <v>14.42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64" s="1">
+        <v>43321</v>
+      </c>
+      <c r="D64">
+        <v>18.16</v>
+      </c>
+      <c r="E64" s="1">
+        <v>43321</v>
+      </c>
+      <c r="F64">
+        <v>18.16</v>
+      </c>
+      <c r="G64" s="2">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64" s="2">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>64</v>
+      </c>
+      <c r="K64">
+        <v>1162.24</v>
+      </c>
+      <c r="L64">
+        <v>1715.82</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64" s="2">
+        <v>-2.9700000000000001E-2</v>
+      </c>
+      <c r="P64" s="2">
+        <v>5.1200000000000002E-2</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="0"/>
+        <v>18.16</v>
       </c>
     </row>
   </sheetData>
@@ -3082,24 +4076,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABA09DD1-E115-47F2-A5F6-8E6DFAD31422}">
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -3145,7 +4131,7 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1">
         <v>40717</v>
@@ -3154,19 +4140,19 @@
         <v>12.83</v>
       </c>
       <c r="E2" s="1">
-        <v>40756</v>
+        <v>40717</v>
       </c>
       <c r="F2">
-        <v>13.95</v>
+        <v>12.83</v>
       </c>
       <c r="G2" s="2">
-        <v>8.7300000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>86.24</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2">
-        <v>8.7300000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>77</v>
@@ -3175,7 +4161,7 @@
         <v>987.91</v>
       </c>
       <c r="L2">
-        <v>86.24</v>
+        <v>0</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -3185,7 +4171,7 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1">
         <v>40787</v>
@@ -3194,28 +4180,28 @@
         <v>11.5</v>
       </c>
       <c r="E3" s="1">
-        <v>40792</v>
+        <v>40787</v>
       </c>
       <c r="F3">
-        <v>10.64</v>
+        <v>11.5</v>
       </c>
       <c r="G3" s="2">
-        <v>-7.4800000000000005E-2</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>-74.819999999999993</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>-7.4800000000000005E-2</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K3">
-        <v>1000.5</v>
+        <v>989</v>
       </c>
       <c r="L3">
-        <v>11.42</v>
+        <v>0</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -3225,7 +4211,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1">
         <v>40827</v>
@@ -3234,19 +4220,19 @@
         <v>11.39</v>
       </c>
       <c r="E4" s="1">
-        <v>40849</v>
+        <v>40827</v>
       </c>
       <c r="F4">
-        <v>10.75</v>
+        <v>11.39</v>
       </c>
       <c r="G4" s="2">
-        <v>-5.62E-2</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>-55.68</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
-        <v>-5.62E-2</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>87</v>
@@ -3255,7 +4241,7 @@
         <v>990.93</v>
       </c>
       <c r="L4">
-        <v>-44.26</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -3268,34 +4254,34 @@
         <v>18</v>
       </c>
       <c r="C5" s="1">
-        <v>40914</v>
+        <v>40856</v>
       </c>
       <c r="D5">
-        <v>10.67</v>
+        <v>10.37</v>
       </c>
       <c r="E5" s="1">
-        <v>41044</v>
+        <v>40884</v>
       </c>
       <c r="F5">
-        <v>18.28</v>
+        <v>10.35</v>
       </c>
       <c r="G5" s="2">
-        <v>0.71319999999999995</v>
+        <v>-1.9E-3</v>
       </c>
       <c r="H5">
-        <v>707.73</v>
+        <v>-1.92</v>
       </c>
       <c r="I5" s="2">
-        <v>0.71319999999999995</v>
+        <v>-1.9E-3</v>
       </c>
       <c r="J5">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K5">
-        <v>992.31</v>
+        <v>995.52</v>
       </c>
       <c r="L5">
-        <v>663.47</v>
+        <v>-1.92</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -3305,37 +4291,37 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1">
-        <v>41054</v>
+        <v>40914</v>
       </c>
       <c r="D6">
-        <v>20.420000000000002</v>
+        <v>10.67</v>
       </c>
       <c r="E6" s="1">
-        <v>41163</v>
+        <v>40914</v>
       </c>
       <c r="F6">
-        <v>26.11</v>
+        <v>10.67</v>
       </c>
       <c r="G6" s="2">
-        <v>0.27860000000000001</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>295.88</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>0.27860000000000001</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="K6">
-        <v>1061.8399999999999</v>
+        <v>992.31</v>
       </c>
       <c r="L6">
-        <v>959.35</v>
+        <v>-1.92</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -3348,34 +4334,34 @@
         <v>18</v>
       </c>
       <c r="C7" s="1">
-        <v>41198</v>
+        <v>40931</v>
       </c>
       <c r="D7">
-        <v>26.61</v>
+        <v>12.49</v>
       </c>
       <c r="E7" s="1">
-        <v>41229</v>
+        <v>41054</v>
       </c>
       <c r="F7">
-        <v>25.36</v>
+        <v>20.420000000000002</v>
       </c>
       <c r="G7" s="2">
-        <v>-4.7E-2</v>
+        <v>0.63490000000000002</v>
       </c>
       <c r="H7">
-        <v>-51.25</v>
+        <v>634.4</v>
       </c>
       <c r="I7" s="2">
-        <v>-4.7E-2</v>
+        <v>0.63490000000000002</v>
       </c>
       <c r="J7">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="K7">
-        <v>1091.01</v>
+        <v>999.2</v>
       </c>
       <c r="L7">
-        <v>908.1</v>
+        <v>632.48</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -3385,37 +4371,37 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1">
-        <v>41239</v>
+        <v>41054</v>
       </c>
       <c r="D8">
-        <v>31.03</v>
+        <v>20.420000000000002</v>
       </c>
       <c r="E8" s="1">
-        <v>41306</v>
+        <v>41054</v>
       </c>
       <c r="F8">
-        <v>39.03</v>
+        <v>20.420000000000002</v>
       </c>
       <c r="G8" s="2">
-        <v>0.25779999999999997</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="I8" s="2">
-        <v>0.25779999999999997</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="K8">
-        <v>1086.05</v>
+        <v>1061.8399999999999</v>
       </c>
       <c r="L8">
-        <v>1188.0999999999999</v>
+        <v>632.48</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -3425,37 +4411,37 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1">
-        <v>41312</v>
+        <v>41198</v>
       </c>
       <c r="D9">
-        <v>44.03</v>
+        <v>26.61</v>
       </c>
       <c r="E9" s="1">
-        <v>41324</v>
+        <v>41198</v>
       </c>
       <c r="F9">
-        <v>40.130000000000003</v>
+        <v>26.61</v>
       </c>
       <c r="G9" s="2">
-        <v>-8.8599999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>-97.5</v>
+        <v>0</v>
       </c>
       <c r="I9" s="2">
-        <v>-8.8599999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="K9">
-        <v>1100.75</v>
+        <v>1037.79</v>
       </c>
       <c r="L9">
-        <v>1090.5999999999999</v>
+        <v>632.48</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -3468,34 +4454,34 @@
         <v>18</v>
       </c>
       <c r="C10" s="1">
-        <v>41374</v>
+        <v>41225</v>
       </c>
       <c r="D10">
-        <v>34.44</v>
+        <v>28.11</v>
       </c>
       <c r="E10" s="1">
-        <v>41432</v>
+        <v>41239</v>
       </c>
       <c r="F10">
-        <v>45.23</v>
+        <v>31.03</v>
       </c>
       <c r="G10" s="2">
-        <v>0.31330000000000002</v>
+        <v>0.10390000000000001</v>
       </c>
       <c r="H10">
-        <v>345.28</v>
+        <v>108.04</v>
       </c>
       <c r="I10" s="2">
-        <v>0.31330000000000002</v>
+        <v>0.10390000000000001</v>
       </c>
       <c r="J10">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K10">
-        <v>1102.08</v>
+        <v>1040.07</v>
       </c>
       <c r="L10">
-        <v>1435.88</v>
+        <v>740.52</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -3505,37 +4491,37 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1">
-        <v>41443</v>
+        <v>41239</v>
       </c>
       <c r="D11">
-        <v>47.78</v>
+        <v>31.03</v>
       </c>
       <c r="E11" s="1">
-        <v>41446</v>
+        <v>41239</v>
       </c>
       <c r="F11">
-        <v>43.5</v>
+        <v>31.03</v>
       </c>
       <c r="G11" s="2">
-        <v>-8.9599999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>-98.44</v>
+        <v>0</v>
       </c>
       <c r="I11" s="2">
-        <v>-8.9599999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="K11">
-        <v>1098.94</v>
+        <v>1055.02</v>
       </c>
       <c r="L11">
-        <v>1337.44</v>
+        <v>740.52</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -3545,37 +4531,37 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1">
-        <v>41463</v>
+        <v>41312</v>
       </c>
       <c r="D12">
-        <v>46.31</v>
+        <v>44.03</v>
       </c>
       <c r="E12" s="1">
-        <v>41492</v>
+        <v>41312</v>
       </c>
       <c r="F12">
-        <v>46.3</v>
+        <v>44.03</v>
       </c>
       <c r="G12" s="2">
-        <v>-2.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>-0.24</v>
+        <v>0</v>
       </c>
       <c r="I12" s="2">
-        <v>-2.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>24</v>
       </c>
       <c r="K12">
-        <v>1111.44</v>
+        <v>1056.72</v>
       </c>
       <c r="L12">
-        <v>1337.2</v>
+        <v>740.52</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -3585,37 +4571,37 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1">
-        <v>41499</v>
+        <v>41374</v>
       </c>
       <c r="D13">
-        <v>49.21</v>
+        <v>34.44</v>
       </c>
       <c r="E13" s="1">
-        <v>41505</v>
+        <v>41374</v>
       </c>
       <c r="F13">
-        <v>46.77</v>
+        <v>34.44</v>
       </c>
       <c r="G13" s="2">
-        <v>-4.9599999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>-56.12</v>
+        <v>0</v>
       </c>
       <c r="I13" s="2">
-        <v>-4.9599999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="K13">
-        <v>1131.83</v>
+        <v>1067.6400000000001</v>
       </c>
       <c r="L13">
-        <v>1281.08</v>
+        <v>740.52</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -3628,34 +4614,34 @@
         <v>18</v>
       </c>
       <c r="C14" s="1">
-        <v>41509</v>
+        <v>41397</v>
       </c>
       <c r="D14">
-        <v>48.44</v>
+        <v>39.880000000000003</v>
       </c>
       <c r="E14" s="1">
-        <v>41556</v>
+        <v>41443</v>
       </c>
       <c r="F14">
-        <v>49.46</v>
+        <v>47.78</v>
       </c>
       <c r="G14" s="2">
-        <v>2.1100000000000001E-2</v>
+        <v>0.1981</v>
       </c>
       <c r="H14">
-        <v>23.46</v>
+        <v>205.4</v>
       </c>
       <c r="I14" s="2">
-        <v>2.1100000000000001E-2</v>
+        <v>0.1981</v>
       </c>
       <c r="J14">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>1114.1199999999999</v>
+        <v>1036.8800000000001</v>
       </c>
       <c r="L14">
-        <v>1304.54</v>
+        <v>945.92</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -3665,37 +4651,37 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1">
-        <v>41563</v>
+        <v>41443</v>
       </c>
       <c r="D15">
-        <v>55.25</v>
+        <v>47.78</v>
       </c>
       <c r="E15" s="1">
-        <v>41661</v>
+        <v>41443</v>
       </c>
       <c r="F15">
-        <v>88.26</v>
+        <v>47.78</v>
       </c>
       <c r="G15" s="2">
-        <v>0.59750000000000003</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>660.2</v>
+        <v>0</v>
       </c>
       <c r="I15" s="2">
-        <v>0.59750000000000003</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K15">
-        <v>1105</v>
+        <v>1051.1600000000001</v>
       </c>
       <c r="L15">
-        <v>1964.74</v>
+        <v>945.92</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -3705,37 +4691,37 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1">
-        <v>41691</v>
+        <v>41463</v>
       </c>
       <c r="D16">
-        <v>80.739999999999995</v>
+        <v>46.31</v>
       </c>
       <c r="E16" s="1">
-        <v>41704</v>
+        <v>41463</v>
       </c>
       <c r="F16">
-        <v>68.5</v>
+        <v>46.31</v>
       </c>
       <c r="G16" s="2">
-        <v>-0.15160000000000001</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>-171.36</v>
+        <v>0</v>
       </c>
       <c r="I16" s="2">
-        <v>-0.15160000000000001</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K16">
-        <v>1130.3599999999999</v>
+        <v>1065.1300000000001</v>
       </c>
       <c r="L16">
-        <v>1793.38</v>
+        <v>945.92</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -3748,34 +4734,34 @@
         <v>18</v>
       </c>
       <c r="C17" s="1">
-        <v>41775</v>
+        <v>41488</v>
       </c>
       <c r="D17">
-        <v>48.37</v>
+        <v>47.42</v>
       </c>
       <c r="E17" s="1">
-        <v>41779</v>
+        <v>41499</v>
       </c>
       <c r="F17">
-        <v>49.32</v>
+        <v>49.21</v>
       </c>
       <c r="G17" s="2">
-        <v>1.9599999999999999E-2</v>
+        <v>3.7699999999999997E-2</v>
       </c>
       <c r="H17">
-        <v>22.8</v>
+        <v>41.17</v>
       </c>
       <c r="I17" s="2">
-        <v>1.9599999999999999E-2</v>
+        <v>3.7699999999999997E-2</v>
       </c>
       <c r="J17">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K17">
-        <v>1160.8800000000001</v>
+        <v>1090.6600000000001</v>
       </c>
       <c r="L17">
-        <v>1816.18</v>
+        <v>987.09</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -3785,37 +4771,37 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1">
-        <v>41780</v>
+        <v>41499</v>
       </c>
       <c r="D18">
-        <v>50.78</v>
+        <v>49.21</v>
       </c>
       <c r="E18" s="1">
-        <v>41799</v>
+        <v>41499</v>
       </c>
       <c r="F18">
-        <v>50.16</v>
+        <v>49.21</v>
       </c>
       <c r="G18" s="2">
-        <v>-1.2200000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>-14.26</v>
+        <v>0</v>
       </c>
       <c r="I18" s="2">
-        <v>-1.2200000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K18">
-        <v>1167.94</v>
+        <v>1082.6199999999999</v>
       </c>
       <c r="L18">
-        <v>1801.92</v>
+        <v>987.09</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
@@ -3825,37 +4811,37 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1">
-        <v>41808</v>
+        <v>41509</v>
       </c>
       <c r="D19">
-        <v>53.7</v>
+        <v>48.44</v>
       </c>
       <c r="E19" s="1">
-        <v>41841</v>
+        <v>41509</v>
       </c>
       <c r="F19">
-        <v>56.6</v>
+        <v>48.44</v>
       </c>
       <c r="G19" s="2">
-        <v>5.3999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>60.9</v>
+        <v>0</v>
       </c>
       <c r="I19" s="2">
-        <v>5.3999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K19">
-        <v>1127.7</v>
+        <v>1065.68</v>
       </c>
       <c r="L19">
-        <v>1862.82</v>
+        <v>987.09</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
@@ -3865,37 +4851,37 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1">
-        <v>41877</v>
+        <v>41563</v>
       </c>
       <c r="D20">
-        <v>51.44</v>
+        <v>55.25</v>
       </c>
       <c r="E20" s="1">
-        <v>41900</v>
+        <v>41563</v>
       </c>
       <c r="F20">
-        <v>50.32</v>
+        <v>55.25</v>
       </c>
       <c r="G20" s="2">
-        <v>-2.18E-2</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>-25.76</v>
+        <v>0</v>
       </c>
       <c r="I20" s="2">
-        <v>-2.18E-2</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K20">
-        <v>1183.1199999999999</v>
+        <v>1049.75</v>
       </c>
       <c r="L20">
-        <v>1837.06</v>
+        <v>987.09</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
@@ -3905,37 +4891,37 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1">
-        <v>41968</v>
+        <v>41691</v>
       </c>
       <c r="D21">
-        <v>36.869999999999997</v>
+        <v>80.739999999999995</v>
       </c>
       <c r="E21" s="1">
-        <v>41974</v>
+        <v>41691</v>
       </c>
       <c r="F21">
-        <v>33.57</v>
+        <v>80.739999999999995</v>
       </c>
       <c r="G21" s="2">
-        <v>-8.9499999999999996E-2</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>-105.6</v>
+        <v>0</v>
       </c>
       <c r="I21" s="2">
-        <v>-8.9499999999999996E-2</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="K21">
-        <v>1179.8399999999999</v>
+        <v>1049.6199999999999</v>
       </c>
       <c r="L21">
-        <v>1731.46</v>
+        <v>987.09</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -3945,37 +4931,37 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1">
-        <v>42006</v>
+        <v>41775</v>
       </c>
       <c r="D22">
-        <v>32.42</v>
+        <v>48.37</v>
       </c>
       <c r="E22" s="1">
-        <v>42009</v>
+        <v>41775</v>
       </c>
       <c r="F22">
-        <v>30.74</v>
+        <v>48.37</v>
       </c>
       <c r="G22" s="2">
-        <v>-5.1799999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>-60.48</v>
+        <v>0</v>
       </c>
       <c r="I22" s="2">
-        <v>-5.1799999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="K22">
-        <v>1167.1199999999999</v>
+        <v>1064.1400000000001</v>
       </c>
       <c r="L22">
-        <v>1670.98</v>
+        <v>987.09</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
@@ -3985,37 +4971,37 @@
         <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C23" s="1">
-        <v>42017</v>
+        <v>41780</v>
       </c>
       <c r="D23">
-        <v>30.88</v>
+        <v>50.78</v>
       </c>
       <c r="E23" s="1">
-        <v>42019</v>
+        <v>41780</v>
       </c>
       <c r="F23">
-        <v>28.33</v>
+        <v>50.78</v>
       </c>
       <c r="G23" s="2">
-        <v>-8.2600000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>-94.35</v>
+        <v>0</v>
       </c>
       <c r="I23" s="2">
-        <v>-8.2600000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="K23">
-        <v>1142.56</v>
+        <v>1066.3800000000001</v>
       </c>
       <c r="L23">
-        <v>1576.63</v>
+        <v>987.09</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -4028,34 +5014,34 @@
         <v>18</v>
       </c>
       <c r="C24" s="1">
-        <v>42047</v>
+        <v>41806</v>
       </c>
       <c r="D24">
-        <v>32.409999999999997</v>
+        <v>51.49</v>
       </c>
       <c r="E24" s="1">
-        <v>42066</v>
+        <v>41808</v>
       </c>
       <c r="F24">
-        <v>29.25</v>
+        <v>53.7</v>
       </c>
       <c r="G24" s="2">
-        <v>-9.7500000000000003E-2</v>
+        <v>4.2900000000000001E-2</v>
       </c>
       <c r="H24">
-        <v>-110.6</v>
+        <v>46.41</v>
       </c>
       <c r="I24" s="2">
-        <v>-9.7500000000000003E-2</v>
+        <v>4.2900000000000001E-2</v>
       </c>
       <c r="J24">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="K24">
-        <v>1134.3499999999999</v>
+        <v>1081.29</v>
       </c>
       <c r="L24">
-        <v>1466.03</v>
+        <v>1033.5</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -4065,37 +5051,37 @@
         <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C25" s="1">
-        <v>42101</v>
+        <v>41808</v>
       </c>
       <c r="D25">
-        <v>28.35</v>
+        <v>53.7</v>
       </c>
       <c r="E25" s="1">
-        <v>42121</v>
+        <v>41808</v>
       </c>
       <c r="F25">
-        <v>25.28</v>
+        <v>53.7</v>
       </c>
       <c r="G25" s="2">
-        <v>-0.10829999999999999</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>-122.8</v>
+        <v>0</v>
       </c>
       <c r="I25" s="2">
-        <v>-0.10829999999999999</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K25">
-        <v>1134</v>
+        <v>1074</v>
       </c>
       <c r="L25">
-        <v>1343.23</v>
+        <v>1033.5</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -4105,37 +5091,37 @@
         <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C26" s="1">
-        <v>42249</v>
+        <v>41877</v>
       </c>
       <c r="D26">
-        <v>13</v>
+        <v>51.44</v>
       </c>
       <c r="E26" s="1">
-        <v>42255</v>
+        <v>41877</v>
       </c>
       <c r="F26">
-        <v>13.3</v>
+        <v>51.44</v>
       </c>
       <c r="G26" s="2">
-        <v>2.3099999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>26.1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="2">
-        <v>2.3099999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="K26">
-        <v>1131</v>
+        <v>1080.24</v>
       </c>
       <c r="L26">
-        <v>1369.33</v>
+        <v>1033.5</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
@@ -4148,34 +5134,34 @@
         <v>18</v>
       </c>
       <c r="C27" s="1">
-        <v>42285</v>
+        <v>41912</v>
       </c>
       <c r="D27">
-        <v>13.75</v>
+        <v>46.37</v>
       </c>
       <c r="E27" s="1">
-        <v>42298</v>
+        <v>41919</v>
       </c>
       <c r="F27">
-        <v>12.09</v>
+        <v>42.61</v>
       </c>
       <c r="G27" s="2">
-        <v>-0.1207</v>
+        <v>-8.1100000000000005E-2</v>
       </c>
       <c r="H27">
-        <v>-136.12</v>
+        <v>-86.48</v>
       </c>
       <c r="I27" s="2">
-        <v>-0.1207</v>
+        <v>-8.1100000000000005E-2</v>
       </c>
       <c r="J27">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="K27">
-        <v>1127.5</v>
+        <v>1066.51</v>
       </c>
       <c r="L27">
-        <v>1233.21</v>
+        <v>947.02</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
@@ -4185,37 +5171,37 @@
         <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C28" s="1">
-        <v>42348</v>
+        <v>41968</v>
       </c>
       <c r="D28">
-        <v>9.65</v>
+        <v>36.869999999999997</v>
       </c>
       <c r="E28" s="1">
-        <v>42369</v>
+        <v>41968</v>
       </c>
       <c r="F28">
-        <v>8.69</v>
+        <v>36.869999999999997</v>
       </c>
       <c r="G28" s="2">
-        <v>-9.9500000000000005E-2</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>-111.36</v>
+        <v>0</v>
       </c>
       <c r="I28" s="2">
-        <v>-9.9500000000000005E-2</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="K28">
-        <v>1119.4000000000001</v>
+        <v>1069.23</v>
       </c>
       <c r="L28">
-        <v>1121.8499999999999</v>
+        <v>947.02</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -4225,37 +5211,37 @@
         <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C29" s="1">
-        <v>42404</v>
+        <v>42006</v>
       </c>
       <c r="D29">
-        <v>9.1300000000000008</v>
+        <v>32.42</v>
       </c>
       <c r="E29" s="1">
-        <v>42494</v>
+        <v>42006</v>
       </c>
       <c r="F29">
-        <v>14.51</v>
+        <v>32.42</v>
       </c>
       <c r="G29" s="2">
-        <v>0.58930000000000005</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>650.98</v>
+        <v>0</v>
       </c>
       <c r="I29" s="2">
-        <v>0.58930000000000005</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="K29">
-        <v>1104.73</v>
+        <v>1069.8599999999999</v>
       </c>
       <c r="L29">
-        <v>1772.83</v>
+        <v>947.02</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
@@ -4265,37 +5251,37 @@
         <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C30" s="1">
-        <v>42524</v>
+        <v>42017</v>
       </c>
       <c r="D30">
-        <v>13.55</v>
+        <v>30.88</v>
       </c>
       <c r="E30" s="1">
-        <v>42535</v>
+        <v>42017</v>
       </c>
       <c r="F30">
-        <v>12.56</v>
+        <v>30.88</v>
       </c>
       <c r="G30" s="2">
-        <v>-7.3099999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>-85.14</v>
+        <v>0</v>
       </c>
       <c r="I30" s="2">
-        <v>-7.3099999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="K30">
-        <v>1165.3</v>
+        <v>1080.8</v>
       </c>
       <c r="L30">
-        <v>1687.69</v>
+        <v>947.02</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -4305,37 +5291,37 @@
         <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C31" s="1">
-        <v>42542</v>
+        <v>42047</v>
       </c>
       <c r="D31">
-        <v>13.6</v>
+        <v>32.409999999999997</v>
       </c>
       <c r="E31" s="1">
-        <v>42548</v>
+        <v>42047</v>
       </c>
       <c r="F31">
-        <v>11.67</v>
+        <v>32.409999999999997</v>
       </c>
       <c r="G31" s="2">
-        <v>-0.1419</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>-164.05</v>
+        <v>0</v>
       </c>
       <c r="I31" s="2">
-        <v>-0.1419</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="K31">
-        <v>1156</v>
+        <v>1069.53</v>
       </c>
       <c r="L31">
-        <v>1523.64</v>
+        <v>947.02</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -4345,37 +5331,37 @@
         <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C32" s="1">
-        <v>42557</v>
+        <v>42101</v>
       </c>
       <c r="D32">
-        <v>13.19</v>
+        <v>28.35</v>
       </c>
       <c r="E32" s="1">
-        <v>42573</v>
+        <v>42101</v>
       </c>
       <c r="F32">
-        <v>13.3</v>
+        <v>28.35</v>
       </c>
       <c r="G32" s="2">
-        <v>8.3000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>9.57</v>
+        <v>0</v>
       </c>
       <c r="I32" s="2">
-        <v>8.3000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="K32">
-        <v>1147.53</v>
+        <v>1077.3</v>
       </c>
       <c r="L32">
-        <v>1533.21</v>
+        <v>947.02</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
@@ -4385,37 +5371,37 @@
         <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C33" s="1">
-        <v>42587</v>
+        <v>42249</v>
       </c>
       <c r="D33">
-        <v>14.77</v>
+        <v>13</v>
       </c>
       <c r="E33" s="1">
-        <v>42619</v>
+        <v>42249</v>
       </c>
       <c r="F33">
-        <v>15.75</v>
+        <v>13</v>
       </c>
       <c r="G33" s="2">
-        <v>6.6400000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>76.44</v>
+        <v>0</v>
       </c>
       <c r="I33" s="2">
-        <v>6.6400000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K33">
-        <v>1152.06</v>
+        <v>1092</v>
       </c>
       <c r="L33">
-        <v>1609.65</v>
+        <v>947.02</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
@@ -4425,37 +5411,37 @@
         <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C34" s="1">
-        <v>42625</v>
+        <v>42285</v>
       </c>
       <c r="D34">
-        <v>15.49</v>
+        <v>13.75</v>
       </c>
       <c r="E34" s="1">
-        <v>42626</v>
+        <v>42285</v>
       </c>
       <c r="F34">
-        <v>15.16</v>
+        <v>13.75</v>
       </c>
       <c r="G34" s="2">
-        <v>-2.1299999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>-24.42</v>
+        <v>0</v>
       </c>
       <c r="I34" s="2">
-        <v>-2.1299999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K34">
-        <v>1146.26</v>
+        <v>1086.25</v>
       </c>
       <c r="L34">
-        <v>1585.23</v>
+        <v>947.02</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
@@ -4465,37 +5451,37 @@
         <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C35" s="1">
-        <v>42629</v>
+        <v>42348</v>
       </c>
       <c r="D35">
-        <v>15.82</v>
+        <v>9.65</v>
       </c>
       <c r="E35" s="1">
-        <v>42656</v>
+        <v>42348</v>
       </c>
       <c r="F35">
-        <v>14.82</v>
+        <v>9.65</v>
       </c>
       <c r="G35" s="2">
-        <v>-6.3200000000000006E-2</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>-73</v>
+        <v>0</v>
       </c>
       <c r="I35" s="2">
-        <v>-6.3200000000000006E-2</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="K35">
-        <v>1154.8599999999999</v>
+        <v>1090.45</v>
       </c>
       <c r="L35">
-        <v>1512.23</v>
+        <v>947.02</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
@@ -4505,37 +5491,37 @@
         <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C36" s="1">
-        <v>42689</v>
+        <v>42404</v>
       </c>
       <c r="D36">
-        <v>13.91</v>
+        <v>9.1300000000000008</v>
       </c>
       <c r="E36" s="1">
-        <v>42706</v>
+        <v>42404</v>
       </c>
       <c r="F36">
-        <v>13.54</v>
+        <v>9.1300000000000008</v>
       </c>
       <c r="G36" s="2">
-        <v>-2.6599999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>-30.34</v>
+        <v>0</v>
       </c>
       <c r="I36" s="2">
-        <v>-2.6599999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="K36">
-        <v>1140.6199999999999</v>
+        <v>1086.47</v>
       </c>
       <c r="L36">
-        <v>1481.89</v>
+        <v>947.02</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
@@ -4548,34 +5534,34 @@
         <v>18</v>
       </c>
       <c r="C37" s="1">
-        <v>42710</v>
+        <v>42432</v>
       </c>
       <c r="D37">
-        <v>15.15</v>
+        <v>12.55</v>
       </c>
       <c r="E37" s="1">
-        <v>42727</v>
+        <v>42515</v>
       </c>
       <c r="F37">
-        <v>14.23</v>
+        <v>13.22</v>
       </c>
       <c r="G37" s="2">
-        <v>-6.0699999999999997E-2</v>
+        <v>5.3400000000000003E-2</v>
       </c>
       <c r="H37">
-        <v>-69</v>
+        <v>58.29</v>
       </c>
       <c r="I37" s="2">
-        <v>-6.0699999999999997E-2</v>
+        <v>5.3400000000000003E-2</v>
       </c>
       <c r="J37">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K37">
-        <v>1136.25</v>
+        <v>1091.8499999999999</v>
       </c>
       <c r="L37">
-        <v>1412.89</v>
+        <v>1005.31</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
@@ -4585,37 +5571,37 @@
         <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C38" s="1">
-        <v>42744</v>
+        <v>42524</v>
       </c>
       <c r="D38">
-        <v>16.73</v>
+        <v>13.55</v>
       </c>
       <c r="E38" s="1">
-        <v>42793</v>
+        <v>42524</v>
       </c>
       <c r="F38">
-        <v>16.940000000000001</v>
+        <v>13.55</v>
       </c>
       <c r="G38" s="2">
-        <v>1.26E-2</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>14.28</v>
+        <v>0</v>
       </c>
       <c r="I38" s="2">
-        <v>1.26E-2</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="K38">
-        <v>1137.6400000000001</v>
+        <v>1097.55</v>
       </c>
       <c r="L38">
-        <v>1427.17</v>
+        <v>1005.31</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
@@ -4625,37 +5611,37 @@
         <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C39" s="1">
-        <v>42825</v>
+        <v>42542</v>
       </c>
       <c r="D39">
-        <v>14.96</v>
+        <v>13.6</v>
       </c>
       <c r="E39" s="1">
-        <v>42835</v>
+        <v>42542</v>
       </c>
       <c r="F39">
-        <v>14.29</v>
+        <v>13.6</v>
       </c>
       <c r="G39" s="2">
-        <v>-4.48E-2</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>-50.92</v>
+        <v>0</v>
       </c>
       <c r="I39" s="2">
-        <v>-4.48E-2</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K39">
-        <v>1136.96</v>
+        <v>1088</v>
       </c>
       <c r="L39">
-        <v>1376.25</v>
+        <v>1005.31</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
@@ -4665,37 +5651,37 @@
         <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C40" s="1">
-        <v>42842</v>
+        <v>42557</v>
       </c>
       <c r="D40">
-        <v>14.88</v>
+        <v>13.19</v>
       </c>
       <c r="E40" s="1">
-        <v>42893</v>
+        <v>42557</v>
       </c>
       <c r="F40">
-        <v>20.74</v>
+        <v>13.19</v>
       </c>
       <c r="G40" s="2">
-        <v>0.39379999999999998</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>445.36</v>
+        <v>0</v>
       </c>
       <c r="I40" s="2">
-        <v>0.39379999999999998</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K40">
-        <v>1130.8800000000001</v>
+        <v>1094.77</v>
       </c>
       <c r="L40">
-        <v>1821.61</v>
+        <v>1005.31</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
@@ -4708,34 +5694,34 @@
         <v>18</v>
       </c>
       <c r="C41" s="1">
-        <v>42907</v>
+        <v>42563</v>
       </c>
       <c r="D41">
-        <v>21.69</v>
+        <v>14.69</v>
       </c>
       <c r="E41" s="1">
-        <v>42915</v>
+        <v>42587</v>
       </c>
       <c r="F41">
-        <v>20.190000000000001</v>
+        <v>14.77</v>
       </c>
       <c r="G41" s="2">
-        <v>-6.9199999999999998E-2</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="H41">
-        <v>-81</v>
+        <v>5.92</v>
       </c>
       <c r="I41" s="2">
-        <v>-6.9199999999999998E-2</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="J41">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="K41">
-        <v>1171.26</v>
+        <v>1087.06</v>
       </c>
       <c r="L41">
-        <v>1740.61</v>
+        <v>1011.23</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
@@ -4745,37 +5731,37 @@
         <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C42" s="1">
-        <v>42984</v>
+        <v>42587</v>
       </c>
       <c r="D42">
-        <v>13.09</v>
+        <v>14.77</v>
       </c>
       <c r="E42" s="1">
-        <v>43018</v>
+        <v>42587</v>
       </c>
       <c r="F42">
-        <v>12.68</v>
+        <v>14.77</v>
       </c>
       <c r="G42" s="2">
-        <v>-3.1300000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>-36.49</v>
+        <v>0</v>
       </c>
       <c r="I42" s="2">
-        <v>-3.1300000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="K42">
-        <v>1165.01</v>
+        <v>1092.98</v>
       </c>
       <c r="L42">
-        <v>1704.12</v>
+        <v>1011.23</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
@@ -4785,37 +5771,37 @@
         <v>17</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C43" s="1">
-        <v>43074</v>
+        <v>42625</v>
       </c>
       <c r="D43">
-        <v>9.61</v>
+        <v>15.49</v>
       </c>
       <c r="E43" s="1">
-        <v>43097</v>
+        <v>42625</v>
       </c>
       <c r="F43">
-        <v>8.76</v>
+        <v>15.49</v>
       </c>
       <c r="G43" s="2">
-        <v>-8.8400000000000006E-2</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>-102.85</v>
+        <v>0</v>
       </c>
       <c r="I43" s="2">
-        <v>-8.8400000000000006E-2</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="K43">
-        <v>1162.81</v>
+        <v>1099.79</v>
       </c>
       <c r="L43">
-        <v>1601.27</v>
+        <v>1011.23</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
@@ -4825,37 +5811,37 @@
         <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C44" s="1">
-        <v>43111</v>
+        <v>42629</v>
       </c>
       <c r="D44">
-        <v>10.29</v>
+        <v>15.82</v>
       </c>
       <c r="E44" s="1">
-        <v>43136</v>
+        <v>42629</v>
       </c>
       <c r="F44">
-        <v>9.07</v>
+        <v>15.82</v>
       </c>
       <c r="G44" s="2">
-        <v>-0.1186</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>-136.63999999999999</v>
+        <v>0</v>
       </c>
       <c r="I44" s="2">
-        <v>-0.1186</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="K44">
-        <v>1152.48</v>
+        <v>1091.58</v>
       </c>
       <c r="L44">
-        <v>1464.63</v>
+        <v>1011.23</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
@@ -4865,37 +5851,37 @@
         <v>17</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C45" s="1">
-        <v>43157</v>
+        <v>42689</v>
       </c>
       <c r="D45">
-        <v>10.37</v>
+        <v>13.91</v>
       </c>
       <c r="E45" s="1">
-        <v>43159</v>
+        <v>42689</v>
       </c>
       <c r="F45">
-        <v>9.5</v>
+        <v>13.91</v>
       </c>
       <c r="G45" s="2">
-        <v>-8.3900000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>-95.7</v>
+        <v>0</v>
       </c>
       <c r="I45" s="2">
-        <v>-8.3900000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="K45">
-        <v>1140.7</v>
+        <v>1098.8900000000001</v>
       </c>
       <c r="L45">
-        <v>1368.93</v>
+        <v>1011.23</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
@@ -4905,37 +5891,37 @@
         <v>17</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C46" s="1">
-        <v>43160</v>
+        <v>42710</v>
       </c>
       <c r="D46">
-        <v>10.74</v>
+        <v>15.15</v>
       </c>
       <c r="E46" s="1">
-        <v>43187</v>
+        <v>42710</v>
       </c>
       <c r="F46">
-        <v>11.3</v>
+        <v>15.15</v>
       </c>
       <c r="G46" s="2">
-        <v>5.21E-2</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>58.8</v>
+        <v>0</v>
       </c>
       <c r="I46" s="2">
-        <v>5.21E-2</v>
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="K46">
-        <v>1127.7</v>
+        <v>1090.8</v>
       </c>
       <c r="L46">
-        <v>1427.73</v>
+        <v>1011.23</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
@@ -4948,34 +5934,34 @@
         <v>18</v>
       </c>
       <c r="C47" s="1">
-        <v>43203</v>
+        <v>42723</v>
       </c>
       <c r="D47">
-        <v>11.93</v>
+        <v>15.09</v>
       </c>
       <c r="E47" s="1">
-        <v>43214</v>
+        <v>42744</v>
       </c>
       <c r="F47">
-        <v>11.21</v>
+        <v>16.73</v>
       </c>
       <c r="G47" s="2">
-        <v>-6.0400000000000002E-2</v>
+        <v>0.1087</v>
       </c>
       <c r="H47">
-        <v>-68.400000000000006</v>
+        <v>118.08</v>
       </c>
       <c r="I47" s="2">
-        <v>-6.0400000000000002E-2</v>
+        <v>0.1087</v>
       </c>
       <c r="J47">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="K47">
-        <v>1133.3499999999999</v>
+        <v>1086.48</v>
       </c>
       <c r="L47">
-        <v>1359.33</v>
+        <v>1129.31</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
@@ -4985,37 +5971,37 @@
         <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C48" s="1">
-        <v>43231</v>
+        <v>42744</v>
       </c>
       <c r="D48">
-        <v>12.03</v>
+        <v>16.73</v>
       </c>
       <c r="E48" s="1">
-        <v>43283</v>
+        <v>42744</v>
       </c>
       <c r="F48">
-        <v>14.09</v>
+        <v>16.73</v>
       </c>
       <c r="G48" s="2">
-        <v>0.17119999999999999</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>193.64</v>
+        <v>0</v>
       </c>
       <c r="I48" s="2">
-        <v>0.17119999999999999</v>
+        <v>0</v>
       </c>
       <c r="J48">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="K48">
-        <v>1130.82</v>
+        <v>1087.45</v>
       </c>
       <c r="L48">
-        <v>1552.97</v>
+        <v>1129.31</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
@@ -5025,37 +6011,37 @@
         <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C49" s="1">
-        <v>43286</v>
+        <v>42825</v>
       </c>
       <c r="D49">
-        <v>14.42</v>
+        <v>14.96</v>
       </c>
       <c r="E49" s="1">
-        <v>43307</v>
+        <v>42825</v>
       </c>
       <c r="F49">
-        <v>13.17</v>
+        <v>14.96</v>
       </c>
       <c r="G49" s="2">
-        <v>-8.6699999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I49" s="2">
-        <v>-8.6699999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K49">
-        <v>1153.5999999999999</v>
+        <v>1107.04</v>
       </c>
       <c r="L49">
-        <v>1452.97</v>
+        <v>1129.31</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
@@ -5065,40 +6051,572 @@
         <v>17</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C50" s="1">
-        <v>43321</v>
+        <v>42842</v>
       </c>
       <c r="D50">
-        <v>18.16</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>21</v>
+        <v>14.88</v>
+      </c>
+      <c r="E50" s="1">
+        <v>42842</v>
       </c>
       <c r="F50">
-        <v>17.920000000000002</v>
+        <v>14.88</v>
       </c>
       <c r="G50" s="2">
-        <v>-1.32E-2</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>-15.12</v>
+        <v>0</v>
       </c>
       <c r="I50" s="2">
-        <v>-1.32E-2</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="K50">
-        <v>1144.08</v>
+        <v>1101.1199999999999</v>
       </c>
       <c r="L50">
-        <v>1437.85</v>
+        <v>1129.31</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" s="1">
+        <v>42859</v>
+      </c>
+      <c r="D51">
+        <v>16.079999999999998</v>
+      </c>
+      <c r="E51" s="1">
+        <v>42907</v>
+      </c>
+      <c r="F51">
+        <v>21.69</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0.34889999999999999</v>
+      </c>
+      <c r="H51">
+        <v>387.09</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0.34889999999999999</v>
+      </c>
+      <c r="J51">
+        <v>69</v>
+      </c>
+      <c r="K51">
+        <v>1109.52</v>
+      </c>
+      <c r="L51">
+        <v>1516.4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" s="1">
+        <v>42907</v>
+      </c>
+      <c r="D52">
+        <v>21.69</v>
+      </c>
+      <c r="E52" s="1">
+        <v>42907</v>
+      </c>
+      <c r="F52">
+        <v>21.69</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52" s="2">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>53</v>
+      </c>
+      <c r="K52">
+        <v>1149.57</v>
+      </c>
+      <c r="L52">
+        <v>1516.4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="1">
+        <v>42984</v>
+      </c>
+      <c r="D53">
+        <v>13.09</v>
+      </c>
+      <c r="E53" s="1">
+        <v>42984</v>
+      </c>
+      <c r="F53">
+        <v>13.09</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>87</v>
+      </c>
+      <c r="K53">
+        <v>1138.83</v>
+      </c>
+      <c r="L53">
+        <v>1516.4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="1">
+        <v>43018</v>
+      </c>
+      <c r="D54">
+        <v>12.68</v>
+      </c>
+      <c r="E54" s="1">
+        <v>43035</v>
+      </c>
+      <c r="F54">
+        <v>11.54</v>
+      </c>
+      <c r="G54" s="2">
+        <v>-8.9899999999999994E-2</v>
+      </c>
+      <c r="H54">
+        <v>-102.6</v>
+      </c>
+      <c r="I54" s="2">
+        <v>-8.9899999999999994E-2</v>
+      </c>
+      <c r="J54">
+        <v>90</v>
+      </c>
+      <c r="K54">
+        <v>1141.2</v>
+      </c>
+      <c r="L54">
+        <v>1413.8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="1">
+        <v>43074</v>
+      </c>
+      <c r="D55">
+        <v>9.61</v>
+      </c>
+      <c r="E55" s="1">
+        <v>43074</v>
+      </c>
+      <c r="F55">
+        <v>9.61</v>
+      </c>
+      <c r="G55" s="2">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55" s="2">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>118</v>
+      </c>
+      <c r="K55">
+        <v>1133.98</v>
+      </c>
+      <c r="L55">
+        <v>1413.8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="1">
+        <v>43108</v>
+      </c>
+      <c r="D56">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E56" s="1">
+        <v>43111</v>
+      </c>
+      <c r="F56">
+        <v>10.29</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0.1065</v>
+      </c>
+      <c r="H56">
+        <v>120.78</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0.1065</v>
+      </c>
+      <c r="J56">
+        <v>122</v>
+      </c>
+      <c r="K56">
+        <v>1134.5999999999999</v>
+      </c>
+      <c r="L56">
+        <v>1534.58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" s="1">
+        <v>43111</v>
+      </c>
+      <c r="D57">
+        <v>10.29</v>
+      </c>
+      <c r="E57" s="1">
+        <v>43111</v>
+      </c>
+      <c r="F57">
+        <v>10.29</v>
+      </c>
+      <c r="G57" s="2">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57" s="2">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>111</v>
+      </c>
+      <c r="K57">
+        <v>1142.19</v>
+      </c>
+      <c r="L57">
+        <v>1534.58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="1">
+        <v>43157</v>
+      </c>
+      <c r="D58">
+        <v>10.37</v>
+      </c>
+      <c r="E58" s="1">
+        <v>43157</v>
+      </c>
+      <c r="F58">
+        <v>10.37</v>
+      </c>
+      <c r="G58" s="2">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58" s="2">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>111</v>
+      </c>
+      <c r="K58">
+        <v>1151.07</v>
+      </c>
+      <c r="L58">
+        <v>1534.58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" s="1">
+        <v>43160</v>
+      </c>
+      <c r="D59">
+        <v>10.74</v>
+      </c>
+      <c r="E59" s="1">
+        <v>43160</v>
+      </c>
+      <c r="F59">
+        <v>10.74</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59" s="2">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>107</v>
+      </c>
+      <c r="K59">
+        <v>1149.18</v>
+      </c>
+      <c r="L59">
+        <v>1534.58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>17</v>
+      </c>
+      <c r="B60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" s="1">
+        <v>43203</v>
+      </c>
+      <c r="D60">
+        <v>11.93</v>
+      </c>
+      <c r="E60" s="1">
+        <v>43203</v>
+      </c>
+      <c r="F60">
+        <v>11.93</v>
+      </c>
+      <c r="G60" s="2">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60" s="2">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>96</v>
+      </c>
+      <c r="K60">
+        <v>1145.28</v>
+      </c>
+      <c r="L60">
+        <v>1534.58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="1">
+        <v>43231</v>
+      </c>
+      <c r="D61">
+        <v>12.03</v>
+      </c>
+      <c r="E61" s="1">
+        <v>43231</v>
+      </c>
+      <c r="F61">
+        <v>12.03</v>
+      </c>
+      <c r="G61" s="2">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61" s="2">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>95</v>
+      </c>
+      <c r="K61">
+        <v>1142.8499999999999</v>
+      </c>
+      <c r="L61">
+        <v>1534.58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" s="1">
+        <v>43252</v>
+      </c>
+      <c r="D62">
+        <v>12.45</v>
+      </c>
+      <c r="E62" s="1">
+        <v>43286</v>
+      </c>
+      <c r="F62">
+        <v>14.42</v>
+      </c>
+      <c r="G62" s="2">
+        <v>0.15820000000000001</v>
+      </c>
+      <c r="H62">
+        <v>181.24</v>
+      </c>
+      <c r="I62" s="2">
+        <v>0.15820000000000001</v>
+      </c>
+      <c r="J62">
+        <v>92</v>
+      </c>
+      <c r="K62">
+        <v>1145.4000000000001</v>
+      </c>
+      <c r="L62">
+        <v>1715.82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" s="1">
+        <v>43286</v>
+      </c>
+      <c r="D63">
+        <v>14.42</v>
+      </c>
+      <c r="E63" s="1">
+        <v>43286</v>
+      </c>
+      <c r="F63">
+        <v>14.42</v>
+      </c>
+      <c r="G63" s="2">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63" s="2">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>80</v>
+      </c>
+      <c r="K63">
+        <v>1153.5999999999999</v>
+      </c>
+      <c r="L63">
+        <v>1715.82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64" s="1">
+        <v>43321</v>
+      </c>
+      <c r="D64">
+        <v>18.16</v>
+      </c>
+      <c r="E64" s="1">
+        <v>43321</v>
+      </c>
+      <c r="F64">
+        <v>18.16</v>
+      </c>
+      <c r="G64" s="2">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64" s="2">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>64</v>
+      </c>
+      <c r="K64">
+        <v>1162.24</v>
+      </c>
+      <c r="L64">
+        <v>1715.82</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
